--- a/data/iartypre09.xlsx
+++ b/data/iartypre09.xlsx
@@ -56,114 +56,114 @@
   <sheetData>
     <row r="11">
       <c r="A11">
-        <v>0.71158344444444444</v>
+        <v>0.95256044627327152</v>
       </c>
       <c r="B11">
-        <v>0.69635887533256036</v>
+        <v>0.92181788451060354</v>
       </c>
       <c r="C11">
-        <v>0.28841655555555556</v>
+        <v>0.047439553726728444</v>
       </c>
       <c r="D11">
-        <v>0.30364112466743964</v>
+        <v>0.078182115489396478</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.022201471105873442</v>
+        <v>0.0042007864598074592</v>
       </c>
       <c r="B12">
-        <v>0.018097359010058451</v>
+        <v>0.0052911936007508133</v>
       </c>
       <c r="C12">
-        <v>0.022201471105873442</v>
+        <v>0.0042007864598074592</v>
       </c>
       <c r="D12">
-        <v>0.018097359010058451</v>
+        <v>0.0052911936007508133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>32.051184403550344</v>
+        <v>226.75764535694387</v>
       </c>
       <c r="B13">
-        <v>38.478480475826693</v>
+        <v>174.21737968155216</v>
       </c>
       <c r="C13">
-        <v>12.990875882961396</v>
+        <v>11.293017195856894</v>
       </c>
       <c r="D13">
-        <v>16.778200868904513</v>
+        <v>14.775893945423306</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>6.0178529609378181e-158</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>4.1691848459367758e-203</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>6.6564140405201854e-36</v>
+        <v>2.9965904448292117e-29</v>
       </c>
       <c r="D14">
-        <v>3.4878819088046734e-56</v>
+        <v>1.798720182524158e-48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.668019382402255</v>
+        <v>0.94432522685605691</v>
       </c>
       <c r="B15">
-        <v>0.66084796405310953</v>
+        <v>0.91144503154650824</v>
       </c>
       <c r="C15">
-        <v>0.24485249351336608</v>
+        <v>0.03920433430951379</v>
       </c>
       <c r="D15">
-        <v>0.26813021338798881</v>
+        <v>0.067809262525301228</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.75514750648663387</v>
+        <v>0.96079566569048613</v>
       </c>
       <c r="B16">
-        <v>0.73186978661201119</v>
+        <v>0.93219073747469883</v>
       </c>
       <c r="C16">
-        <v>0.33198061759774505</v>
+        <v>0.055674773143943097</v>
       </c>
       <c r="D16">
-        <v>0.33915203594689047</v>
+        <v>0.088554968453491728</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B17">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C17">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D17">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B18">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C18">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D18">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="19">
@@ -182,114 +182,114 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.53852829468599039</v>
+        <v>0.92382669615735202</v>
       </c>
       <c r="B21">
-        <v>0.49879551090413116</v>
+        <v>0.86997887136194385</v>
       </c>
       <c r="C21">
-        <v>0.46147170531400972</v>
+        <v>0.076173303842647977</v>
       </c>
       <c r="D21">
-        <v>0.50120448909586879</v>
+        <v>0.13002112863805595</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.024440890699231853</v>
+        <v>0.0051904451728878032</v>
       </c>
       <c r="B22">
-        <v>0.019520231628166455</v>
+        <v>0.0064240007283664019</v>
       </c>
       <c r="C22">
-        <v>0.024440890699231853</v>
+        <v>0.0051904451728878032</v>
       </c>
       <c r="D22">
-        <v>0.019520231628166455</v>
+        <v>0.0064240007283664019</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22.033906264427412</v>
+        <v>177.98602343069609</v>
       </c>
       <c r="B23">
-        <v>25.552745500437652</v>
+        <v>135.4263344834919</v>
       </c>
       <c r="C23">
-        <v>18.881132892939668</v>
+        <v>14.675678348465727</v>
       </c>
       <c r="D23">
-        <v>25.676154804057884</v>
+        <v>20.239899423411153</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>8.2251571105264082e-89</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>1.7148289625380075e-112</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>9.9364766065735614e-69</v>
+        <v>7.4844720763838288e-48</v>
       </c>
       <c r="D24">
-        <v>2.4350049584668279e-113</v>
+        <v>6.9245837521295216e-88</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.49057000968270392</v>
+        <v>0.91365135035467271</v>
       </c>
       <c r="B25">
-        <v>0.46049261747548881</v>
+        <v>0.85738526394090186</v>
       </c>
       <c r="C25">
-        <v>0.41351342031072325</v>
+        <v>0.065997958039968718</v>
       </c>
       <c r="D25">
-        <v>0.46290159566722644</v>
+        <v>0.11742752121701393</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.58648657968927687</v>
+        <v>0.93400204196003134</v>
       </c>
       <c r="B26">
-        <v>0.53709840433277345</v>
+        <v>0.88257247878298584</v>
       </c>
       <c r="C26">
-        <v>0.50942999031729619</v>
+        <v>0.086348649645327236</v>
       </c>
       <c r="D26">
-        <v>0.53950738252451114</v>
+        <v>0.14261473605909797</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B27">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C27">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D27">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B28">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C28">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D28">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="29">
@@ -308,44 +308,44 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.99553511111111137</v>
+        <v>0.99928588405331631</v>
       </c>
       <c r="B31">
-        <v>0.99045727812871343</v>
+        <v>0.99754453412572364</v>
       </c>
       <c r="C31">
-        <v>0.0044648888888888889</v>
+        <v>0.00071411594668379643</v>
       </c>
       <c r="D31">
-        <v>0.0095427218712865088</v>
+        <v>0.0024554658742764234</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.0031473300437045841</v>
+        <v>0.00050753779083814201</v>
       </c>
       <c r="B32">
-        <v>0.0038645679322594699</v>
+        <v>0.0010001197209517513</v>
       </c>
       <c r="C32">
-        <v>0.0031473300437045841</v>
+        <v>0.00050753779083814201</v>
       </c>
       <c r="D32">
-        <v>0.0038645679322594699</v>
+        <v>0.0010001197209517513</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>316.31099925551842</v>
+        <v>1968.8896119500919</v>
       </c>
       <c r="B33">
-        <v>256.29185344650671</v>
+        <v>997.42512144088414</v>
       </c>
       <c r="C33">
-        <v>1.4186274800825986</v>
+        <v>1.4070202447477136</v>
       </c>
       <c r="D33">
-        <v>2.469285580835225</v>
+        <v>2.4551719387552025</v>
       </c>
     </row>
     <row r="34">
@@ -356,66 +356,66 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.1563029849407265</v>
+        <v>0.15947841926682632</v>
       </c>
       <c r="D34">
-        <v>0.013695782481896084</v>
+        <v>0.014112746516294458</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.98935937254688078</v>
+        <v>0.99829090725312164</v>
       </c>
       <c r="B35">
-        <v>0.98287416454293541</v>
+        <v>0.99558389998630137</v>
       </c>
       <c r="C35">
-        <v>-0.0017108496753416849</v>
+        <v>-0.00028086085351091534</v>
       </c>
       <c r="D35">
-        <v>0.0019596082855084717</v>
+        <v>0.00049483173485419122</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1.001710849675342</v>
+        <v>1.000280860853511</v>
       </c>
       <c r="B36">
-        <v>0.99804039171449144</v>
+        <v>0.9995051682651459</v>
       </c>
       <c r="C36">
-        <v>0.010640627453119462</v>
+        <v>0.0017090927468785082</v>
       </c>
       <c r="D36">
-        <v>0.017125835457064545</v>
+        <v>0.004416100013698656</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B37">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C37">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D37">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B38">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C38">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D38">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="39">
@@ -434,114 +434,114 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.75435314975845413</v>
+        <v>0.95957201860593455</v>
       </c>
       <c r="B41">
-        <v>0.8143883356345949</v>
+        <v>0.95234818483458494</v>
       </c>
       <c r="C41">
-        <v>0.24564685024154592</v>
+        <v>0.040427981394065379</v>
       </c>
       <c r="D41">
-        <v>0.18561166436540505</v>
+        <v>0.047651815165415119</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.021167341391449129</v>
+        <v>0.0038983349909250966</v>
       </c>
       <c r="B42">
-        <v>0.015254167871610306</v>
+        <v>0.0042271739983928665</v>
       </c>
       <c r="C42">
-        <v>0.021167341391449129</v>
+        <v>0.0038983349909250966</v>
       </c>
       <c r="D42">
-        <v>0.015254167871610306</v>
+        <v>0.0042271739983928665</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>35.637595473524449</v>
+        <v>246.14919467919373</v>
       </c>
       <c r="B43">
-        <v>53.387922729647002</v>
+        <v>225.29192912254359</v>
       </c>
       <c r="C43">
-        <v>11.604993073942612</v>
+        <v>10.370576537977716</v>
       </c>
       <c r="D43">
-        <v>12.167931146926009</v>
+        <v>11.272735681931216</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>3.1237331177589611e-183</v>
+        <v>0</v>
       </c>
       <c r="B44">
-        <v>4.2407962028210886e-302</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>2.1735500108382811e-29</v>
+        <v>5.7538800876058249e-25</v>
       </c>
       <c r="D44">
-        <v>5.7102090979237875e-32</v>
+        <v>3.7539707344343379e-29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.71281827266639775</v>
+        <v>0.95192972487850114</v>
       </c>
       <c r="B45">
-        <v>0.7844563769642976</v>
+        <v>0.94406123530154307</v>
       </c>
       <c r="C45">
-        <v>0.20411197314948951</v>
+        <v>0.032785687666631987</v>
       </c>
       <c r="D45">
-        <v>0.1556797056951077</v>
+        <v>0.039364865632373292</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.79588802685051052</v>
+        <v>0.96721431233336796</v>
       </c>
       <c r="B46">
-        <v>0.84432029430489219</v>
+        <v>0.96063513436762682</v>
       </c>
       <c r="C46">
-        <v>0.28718172733360231</v>
+        <v>0.048070275121498772</v>
       </c>
       <c r="D46">
-        <v>0.2155436230357024</v>
+        <v>0.055938764698456947</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B47">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C47">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D47">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B48">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C48">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D48">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="49">
@@ -560,162 +560,162 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.6640625</v>
+        <v>0.98226804123711342</v>
       </c>
       <c r="B51">
-        <v>0.67405764966740578</v>
+        <v>0.92209856915739263</v>
       </c>
       <c r="C51">
-        <v>0.73695198329853862</v>
+        <v>0.88947368421052642</v>
       </c>
       <c r="D51">
-        <v>0.3359375</v>
+        <v>0.017731958762886597</v>
       </c>
       <c r="E51">
-        <v>0.32594235033259422</v>
+        <v>0.077901430842607311</v>
       </c>
       <c r="F51">
-        <v>0.26304801670146138</v>
+        <v>0.11052631578947367</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.041747333007420034</v>
+        <v>0.0026800166487648673</v>
       </c>
       <c r="B52">
-        <v>0.022071438868593581</v>
+        <v>0.0061698618707061673</v>
       </c>
       <c r="C52">
-        <v>0.020117284377163539</v>
+        <v>0.0092863911610503603</v>
       </c>
       <c r="D52">
-        <v>0.041747333007420034</v>
+        <v>0.0026800166487648673</v>
       </c>
       <c r="E52">
-        <v>0.022071438868593581</v>
+        <v>0.0061698618707061673</v>
       </c>
       <c r="F52">
-        <v>0.020117284377163539</v>
+        <v>0.0092863911610503603</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>15.906704744036505</v>
+        <v>366.51564895681111</v>
       </c>
       <c r="B53">
-        <v>30.539814539529274</v>
+        <v>149.45206043192252</v>
       </c>
       <c r="C53">
-        <v>36.632776545879203</v>
+        <v>95.782491689691028</v>
       </c>
       <c r="D53">
-        <v>8.0469212234537615</v>
+        <v>6.6163614211347088</v>
       </c>
       <c r="E53">
-        <v>14.767607688522379</v>
+        <v>12.626122346834833</v>
       </c>
       <c r="F53">
-        <v>13.075721939888895</v>
+        <v>11.901966422979356</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>3.1349418372276619e-51</v>
+        <v>0</v>
       </c>
       <c r="B54">
-        <v>2.7652295164963223e-147</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>3.2367191751477841e-190</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>2.27191086307319e-15</v>
+        <v>4.0338870169202302e-11</v>
       </c>
       <c r="E54">
-        <v>5.3116998344046333e-45</v>
+        <v>4.8257984179687406e-36</v>
       </c>
       <c r="F54">
-        <v>2.553799625041789e-36</v>
+        <v>2.8941214993423362e-32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.58214525241949822</v>
+        <v>0.9770141381036086</v>
       </c>
       <c r="B55">
-        <v>0.63074873884584182</v>
+        <v>0.9100031754102178</v>
       </c>
       <c r="C55">
-        <v>0.69747754394504591</v>
+        <v>0.87126864819238092</v>
       </c>
       <c r="D55">
-        <v>0.25402025241949822</v>
+        <v>0.012478055629381788</v>
       </c>
       <c r="E55">
-        <v>0.2826334395110302</v>
+        <v>0.065806037095432493</v>
       </c>
       <c r="F55">
-        <v>0.22357357734796868</v>
+        <v>0.09232127977132823</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.74597974758050178</v>
+        <v>0.98752194437061824</v>
       </c>
       <c r="B56">
-        <v>0.71736656048896974</v>
+        <v>0.93419396290456747</v>
       </c>
       <c r="C56">
-        <v>0.77642642265203132</v>
+        <v>0.90767872022867191</v>
       </c>
       <c r="D56">
-        <v>0.41785474758050178</v>
+        <v>0.022985861896391405</v>
       </c>
       <c r="E56">
-        <v>0.36925126115415824</v>
+        <v>0.089996824589782129</v>
       </c>
       <c r="F56">
-        <v>0.30252245605495409</v>
+        <v>0.1287313518076191</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B57">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C57">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D57">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="E57">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="F57">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B58">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C58">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D58">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="E58">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="F58">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="59">
@@ -740,162 +740,162 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.59375</v>
+        <v>0.97855670103092796</v>
       </c>
       <c r="B61">
-        <v>0.56762749445676275</v>
+        <v>0.89666136724960255</v>
       </c>
       <c r="C61">
-        <v>0.44676409185803756</v>
+        <v>0.76754385964912286</v>
       </c>
       <c r="D61">
-        <v>0.40625</v>
+        <v>0.021443298969072166</v>
       </c>
       <c r="E61">
-        <v>0.43237250554323731</v>
+        <v>0.10333863275039745</v>
       </c>
       <c r="F61">
-        <v>0.55323590814196244</v>
+        <v>0.23245614035087719</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.043410372599400136</v>
+        <v>0.0029415953241199969</v>
       </c>
       <c r="B62">
-        <v>0.023327729756565357</v>
+        <v>0.0070074439839329155</v>
       </c>
       <c r="C62">
-        <v>0.022715722442947124</v>
+        <v>0.012510356522471391</v>
       </c>
       <c r="D62">
-        <v>0.043410372599400136</v>
+        <v>0.0029415953241199969</v>
       </c>
       <c r="E62">
-        <v>0.023327729756565357</v>
+        <v>0.0070074439839329155</v>
       </c>
       <c r="F62">
-        <v>0.022715722442947124</v>
+        <v>0.012510356522471391</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>13.677606628241765</v>
+        <v>332.66190390198267</v>
       </c>
       <c r="B63">
-        <v>24.332736206231541</v>
+        <v>127.95840670371695</v>
       </c>
       <c r="C63">
-        <v>19.667615369932943</v>
+        <v>61.352676741901227</v>
       </c>
       <c r="D63">
-        <v>9.3583624298496293</v>
+        <v>7.2896835241900959</v>
       </c>
       <c r="E63">
-        <v>18.534701407090434</v>
+        <v>14.746979495995747</v>
       </c>
       <c r="F63">
-        <v>24.354757350617898</v>
+        <v>18.581096384690085</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>2.5195022402848886e-39</v>
+        <v>0</v>
       </c>
       <c r="B64">
-        <v>3.6301838862262417e-104</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>1.3050328170039873e-73</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>4.7187480599742154e-20</v>
+        <v>3.5506776974982553e-13</v>
       </c>
       <c r="E64">
-        <v>1.3083520906809491e-66</v>
+        <v>2.7165109957675485e-48</v>
       </c>
       <c r="F64">
-        <v>2.5739621882433597e-104</v>
+        <v>8.9675390679668541e-75</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.50856951100553305</v>
+        <v>0.97278999920912401</v>
       </c>
       <c r="B65">
-        <v>0.52185347067373555</v>
+        <v>0.88292397799793054</v>
       </c>
       <c r="C65">
-        <v>0.40219095807250627</v>
+        <v>0.74301856374658926</v>
       </c>
       <c r="D65">
-        <v>0.32106951100553299</v>
+        <v>0.015676597147268264</v>
       </c>
       <c r="E65">
-        <v>0.38659848176021006</v>
+        <v>0.089601243498725433</v>
       </c>
       <c r="F65">
-        <v>0.50866277435643115</v>
+        <v>0.20793084444834362</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.67893048899446695</v>
+        <v>0.9843234028527319</v>
       </c>
       <c r="B66">
-        <v>0.61340151823978994</v>
+        <v>0.91039875650127455</v>
       </c>
       <c r="C66">
-        <v>0.49133722564356885</v>
+        <v>0.79206915555165647</v>
       </c>
       <c r="D66">
-        <v>0.49143048899446701</v>
+        <v>0.027210000790876068</v>
       </c>
       <c r="E66">
-        <v>0.47814652932626456</v>
+        <v>0.11707602200206947</v>
       </c>
       <c r="F66">
-        <v>0.59780904192749373</v>
+        <v>0.25698143625341074</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B67">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C67">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D67">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="E67">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="F67">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B68">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C68">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D68">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="E68">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="F68">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="69">
@@ -920,62 +920,62 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.9921875</v>
+        <v>0.99958762886597941</v>
       </c>
       <c r="B71">
-        <v>0.98669623059866962</v>
+        <v>0.99682034976152623</v>
       </c>
       <c r="C71">
-        <v>0.9979123173277662</v>
+        <v>0.99912280701754386</v>
       </c>
       <c r="D71">
-        <v>0.0078125</v>
+        <v>0.00041237113402061858</v>
       </c>
       <c r="E71">
-        <v>0.013303769401330375</v>
+        <v>0.0031796502384737685</v>
       </c>
       <c r="F71">
-        <v>0.0020876826722338203</v>
+        <v>0.00087719298245614026</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.0077819225832564598</v>
+        <v>0.0004122861002772651</v>
       </c>
       <c r="B72">
-        <v>0.0053949921595340357</v>
+        <v>0.0012960214000705232</v>
       </c>
       <c r="C72">
-        <v>0.0020855023242005956</v>
+        <v>0.00087680816428344001</v>
       </c>
       <c r="D72">
-        <v>0.0077819225832564598</v>
+        <v>0.0004122861002772651</v>
       </c>
       <c r="E72">
-        <v>0.0053949921595340357</v>
+        <v>0.0012960214000705232</v>
       </c>
       <c r="F72">
-        <v>0.0020855023242005956</v>
+        <v>0.00087680816428344001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>127.49901960407379</v>
+        <v>2424.4999484429627</v>
       </c>
       <c r="B73">
-        <v>182.89113337356366</v>
+        <v>769.13880411795981</v>
       </c>
       <c r="C73">
-        <v>478.49973876690882</v>
+        <v>1139.4998903027595</v>
       </c>
       <c r="D73">
-        <v>1.0039292882210535</v>
+        <v>1.000206249357658</v>
       </c>
       <c r="E73">
-        <v>2.4659478657109704</v>
+        <v>2.4533933145708451</v>
       </c>
       <c r="F73">
-        <v>1.0010454785918594</v>
+        <v>1.0004388852526422</v>
       </c>
     </row>
     <row r="74">
@@ -989,93 +989,93 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.31564289789320865</v>
+        <v>0.31725511909985893</v>
       </c>
       <c r="E74">
-        <v>0.013823309026896366</v>
+        <v>0.014182650192792289</v>
       </c>
       <c r="F74">
-        <v>0.31703436203248531</v>
+        <v>0.31714258358946895</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.97691769393139161</v>
+        <v>0.99877938342647976</v>
       </c>
       <c r="B75">
-        <v>0.97611009547121452</v>
+        <v>0.99427963013649778</v>
       </c>
       <c r="C75">
-        <v>0.99382011315772045</v>
+        <v>0.99740391278457918</v>
       </c>
       <c r="D75">
-        <v>-0.0074573060686083763</v>
+        <v>-0.00039587430547897978</v>
       </c>
       <c r="E75">
-        <v>0.0027176342738752645</v>
+        <v>0.00063893061344534293</v>
       </c>
       <c r="F75">
-        <v>-0.0020045214978119102</v>
+        <v>-0.0008417012505085792</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>1.0074573060686083</v>
+        <v>1.000395874305479</v>
       </c>
       <c r="B76">
-        <v>0.99728236572612472</v>
+        <v>0.99936106938655467</v>
       </c>
       <c r="C76">
-        <v>1.0020045214978119</v>
+        <v>1.0008417012505086</v>
       </c>
       <c r="D76">
-        <v>0.023082306068608376</v>
+        <v>0.0012206165735202169</v>
       </c>
       <c r="E76">
-        <v>0.023889904528785484</v>
+        <v>0.0057203698635021945</v>
       </c>
       <c r="F76">
-        <v>0.0061798868422795507</v>
+        <v>0.0025960872154208595</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B77">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C77">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D77">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="E77">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="F77">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B78">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C78">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D78">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="E78">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="F78">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="79">
@@ -1100,162 +1100,162 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.75</v>
+        <v>0.9868041237113403</v>
       </c>
       <c r="B81">
-        <v>0.77161862527716185</v>
+        <v>0.94541600423953365</v>
       </c>
       <c r="C81">
-        <v>0.81837160751565763</v>
+        <v>0.92368421052631577</v>
       </c>
       <c r="D81">
-        <v>0.25</v>
+        <v>0.013195876288659794</v>
       </c>
       <c r="E81">
-        <v>0.22838137472283818</v>
+        <v>0.054583995760466339</v>
       </c>
       <c r="F81">
-        <v>0.18162839248434237</v>
+        <v>0.076315789473684212</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.038273277230987154</v>
+        <v>0.0023172811243640052</v>
       </c>
       <c r="B82">
-        <v>0.019767121036288821</v>
+        <v>0.0052294761556362012</v>
       </c>
       <c r="C82">
-        <v>0.017615679076537168</v>
+        <v>0.00786351165642824</v>
       </c>
       <c r="D82">
-        <v>0.038273277230987154</v>
+        <v>0.0023172811243640052</v>
       </c>
       <c r="E82">
-        <v>0.019767121036288821</v>
+        <v>0.0052294761556362012</v>
       </c>
       <c r="F82">
-        <v>0.017615679076537168</v>
+        <v>0.00786351165642824</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>19.595917942265427</v>
+        <v>425.8456659988442</v>
       </c>
       <c r="B83">
-        <v>39.035458115555173</v>
+        <v>180.78598622552039</v>
       </c>
       <c r="C83">
-        <v>46.457000264365078</v>
+        <v>117.46459481257654</v>
       </c>
       <c r="D83">
-        <v>6.5319726474218092</v>
+        <v>5.6945513213384933</v>
       </c>
       <c r="E83">
-        <v>11.553598235351103</v>
+        <v>10.43775593118195</v>
       </c>
       <c r="F83">
-        <v>10.310609752550413</v>
+        <v>9.705051993061879</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>3.66862992273082e-73</v>
+        <v>0</v>
       </c>
       <c r="B84">
-        <v>5.6180962393536144e-207</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>2.12874053716594e-257</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>1.0075618816476322e-10</v>
+        <v>1.3016705569811353e-08</v>
       </c>
       <c r="E84">
-        <v>3.6996831215570233e-29</v>
+        <v>2.8815439831282294e-25</v>
       </c>
       <c r="F84">
-        <v>8.1505212097284172e-24</v>
+        <v>4.3274703324945835e-22</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.67489959715293169</v>
+        <v>0.98226132709620784</v>
       </c>
       <c r="B85">
-        <v>0.73283128172169176</v>
+        <v>0.93516414212018895</v>
       </c>
       <c r="C85">
-        <v>0.78380585587938234</v>
+        <v>0.90826858669013544</v>
       </c>
       <c r="D85">
-        <v>0.17489959715293171</v>
+        <v>0.0086530796735273668</v>
       </c>
       <c r="E85">
-        <v>0.18959403116736812</v>
+        <v>0.044332133641121624</v>
       </c>
       <c r="F85">
-        <v>0.14706264084806706</v>
+        <v>0.060900165637503847</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.82510040284706831</v>
+        <v>0.99134692032647276</v>
       </c>
       <c r="B86">
-        <v>0.81040596883263194</v>
+        <v>0.95566786635887835</v>
       </c>
       <c r="C86">
-        <v>0.85293735915193292</v>
+        <v>0.93909983436249611</v>
       </c>
       <c r="D86">
-        <v>0.32510040284706831</v>
+        <v>0.017738672903792222</v>
       </c>
       <c r="E86">
-        <v>0.26716871827830824</v>
+        <v>0.064835857879811054</v>
       </c>
       <c r="F86">
-        <v>0.21619414412061769</v>
+        <v>0.091731413309864576</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B87">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C87">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D87">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="E87">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="F87">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B88">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C88">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D88">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="E88">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="F88">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="89">
@@ -1280,258 +1280,258 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.77338393201599631</v>
+        <v>0.94535842570498096</v>
       </c>
       <c r="B91">
-        <v>0.57767006744211447</v>
+        <v>0.90657409459831428</v>
       </c>
       <c r="C91">
-        <v>0.6980406189555125</v>
+        <v>0.93974134766883677</v>
       </c>
       <c r="D91">
-        <v>0.5711044484988328</v>
+        <v>0.93058208106229912</v>
       </c>
       <c r="E91">
-        <v>0.64883141025641022</v>
+        <v>0.96366929239200516</v>
       </c>
       <c r="F91">
-        <v>0.22661606798400377</v>
+        <v>0.05464157429501898</v>
       </c>
       <c r="G91">
-        <v>0.42232993255788553</v>
+        <v>0.093425905401685744</v>
       </c>
       <c r="H91">
-        <v>0.30195938104448744</v>
+        <v>0.060258652331163287</v>
       </c>
       <c r="I91">
-        <v>0.42889555150116709</v>
+        <v>0.069417918937700801</v>
       </c>
       <c r="J91">
-        <v>0.35116858974358978</v>
+        <v>0.036330707607994846</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.016812234303851183</v>
+        <v>0.0044432013128219115</v>
       </c>
       <c r="B92">
-        <v>0.03684701596135604</v>
+        <v>0.0096647419390408825</v>
       </c>
       <c r="C92">
-        <v>0.048808023284922487</v>
+        <v>0.01143938999461209</v>
       </c>
       <c r="D92">
-        <v>0.044785916340595019</v>
+        <v>0.0093576469014732509</v>
       </c>
       <c r="E92">
-        <v>0.096180465254182862</v>
+        <v>0.012149874053716637</v>
       </c>
       <c r="F92">
-        <v>0.016812234303851183</v>
+        <v>0.0044432013128219115</v>
       </c>
       <c r="G92">
-        <v>0.03684701596135604</v>
+        <v>0.0096647419390408825</v>
       </c>
       <c r="H92">
-        <v>0.048808023284922487</v>
+        <v>0.01143938999461209</v>
       </c>
       <c r="I92">
-        <v>0.044785916340595019</v>
+        <v>0.0093576469014732509</v>
       </c>
       <c r="J92">
-        <v>0.096180465254182862</v>
+        <v>0.012149874053716637</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>46.001258252678355</v>
+        <v>212.76515718001005</v>
       </c>
       <c r="B93">
-        <v>15.677526452832874</v>
+        <v>93.802203961203915</v>
       </c>
       <c r="C93">
-        <v>14.301759669319521</v>
+        <v>82.149603091725297</v>
       </c>
       <c r="D93">
-        <v>12.751875928039684</v>
+        <v>99.446163213936828</v>
       </c>
       <c r="E93">
-        <v>6.7459791189582825</v>
+        <v>79.315167229838039</v>
       </c>
       <c r="F93">
-        <v>13.479235649963121</v>
+        <v>12.29779396610677</v>
       </c>
       <c r="G93">
-        <v>11.461713290455094</v>
+        <v>9.6666735636561878</v>
       </c>
       <c r="H93">
-        <v>6.1866750735174127</v>
+        <v>5.2676455964474407</v>
       </c>
       <c r="I93">
-        <v>9.5765719794462694</v>
+        <v>7.418309289568489</v>
       </c>
       <c r="J93">
-        <v>3.6511425559809045</v>
+        <v>2.9902126925242745</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>2.2573615373305534e-254</v>
+        <v>0</v>
       </c>
       <c r="B94">
-        <v>5.9231686269396784e-50</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>1.5367966561297029e-42</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>9.6556715906638303e-35</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>2.5010200848269057e-11</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>2.5259223539301545e-38</v>
+        <v>2.6440417804704588e-34</v>
       </c>
       <c r="G94">
-        <v>9.5322601358889649e-29</v>
+        <v>6.2603404392075469e-22</v>
       </c>
       <c r="H94">
-        <v>8.7773713745603011e-10</v>
+        <v>1.4349503773122025e-07</v>
       </c>
       <c r="I94">
-        <v>6.8844852268653086e-21</v>
+        <v>1.3686111127829391e-13</v>
       </c>
       <c r="J94">
-        <v>0.0002738842136775011</v>
+        <v>0.0028002957558079878</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.74039471185179562</v>
+        <v>0.93664797634602404</v>
       </c>
       <c r="B95">
-        <v>0.50536829600745492</v>
+        <v>0.88762733992742671</v>
       </c>
       <c r="C95">
-        <v>0.60226877823372893</v>
+        <v>0.917315573946209</v>
       </c>
       <c r="D95">
-        <v>0.48322484679253719</v>
+        <v>0.91223735533063621</v>
       </c>
       <c r="E95">
-        <v>0.46010464816038876</v>
+        <v>0.93985068611882039</v>
       </c>
       <c r="F95">
-        <v>0.19362684781980308</v>
+        <v>0.045931124936062093</v>
       </c>
       <c r="G95">
-        <v>0.35002816112322599</v>
+        <v>0.074479150730798166</v>
       </c>
       <c r="H95">
-        <v>0.20618754032270387</v>
+        <v>0.037832878608535549</v>
       </c>
       <c r="I95">
-        <v>0.34101594979487149</v>
+        <v>0.051073193206037884</v>
       </c>
       <c r="J95">
-        <v>0.16244182764756832</v>
+        <v>0.012512101334810032</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.80637315218019701</v>
+        <v>0.95406887506393789</v>
       </c>
       <c r="B96">
-        <v>0.64997183887677401</v>
+        <v>0.92552084926920186</v>
       </c>
       <c r="C96">
-        <v>0.79381245967729608</v>
+        <v>0.96216712139146454</v>
       </c>
       <c r="D96">
-        <v>0.6589840502051284</v>
+        <v>0.94892680679396202</v>
       </c>
       <c r="E96">
-        <v>0.83755817235243168</v>
+        <v>0.98748789866518993</v>
       </c>
       <c r="F96">
-        <v>0.25960528814820444</v>
+        <v>0.063352023653975867</v>
       </c>
       <c r="G96">
-        <v>0.49463170399254508</v>
+        <v>0.11237266007257332</v>
       </c>
       <c r="H96">
-        <v>0.39773122176627101</v>
+        <v>0.082684426053791032</v>
       </c>
       <c r="I96">
-        <v>0.5167751532074627</v>
+        <v>0.087762644669363718</v>
       </c>
       <c r="J96">
-        <v>0.53989535183961124</v>
+        <v>0.06014931388117966</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B97">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C97">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D97">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="E97">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="F97">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="G97">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="H97">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="I97">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="J97">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B98">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C98">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D98">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="E98">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="F98">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="G98">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="H98">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="I98">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="J98">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="99">
@@ -1568,258 +1568,258 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.44338197512350047</v>
+        <v>0.86771815471666114</v>
       </c>
       <c r="B101">
-        <v>0.63240205602883348</v>
+        <v>0.92095526591827159</v>
       </c>
       <c r="C101">
-        <v>0.54879535783365574</v>
+        <v>0.9090964683369499</v>
       </c>
       <c r="D101">
-        <v>0.65025829733573015</v>
+        <v>0.94476698623098143</v>
       </c>
       <c r="E101">
-        <v>0.47571185897435891</v>
+        <v>0.94637160219213412</v>
       </c>
       <c r="F101">
-        <v>0.55661802487649958</v>
+        <v>0.13228184528333869</v>
       </c>
       <c r="G101">
-        <v>0.36759794397116641</v>
+        <v>0.07904473408172831</v>
       </c>
       <c r="H101">
-        <v>0.45120464216634426</v>
+        <v>0.090903531663049902</v>
       </c>
       <c r="I101">
-        <v>0.34974170266426985</v>
+        <v>0.055233013769018527</v>
       </c>
       <c r="J101">
-        <v>0.52428814102564103</v>
+        <v>0.053628397807865893</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.019996906444197875</v>
+        <v>0.0064199726137205374</v>
       </c>
       <c r="B102">
-        <v>0.036081999871815561</v>
+        <v>0.0090714960941793675</v>
       </c>
       <c r="C102">
-        <v>0.053337468241531363</v>
+        <v>0.013749443523583279</v>
       </c>
       <c r="D102">
-        <v>0.043339034103126124</v>
+        <v>0.0085347360225081301</v>
       </c>
       <c r="E102">
-        <v>0.10337704277738272</v>
+        <v>0.015001734947440512</v>
       </c>
       <c r="F102">
-        <v>0.019996906444197875</v>
+        <v>0.0064199726137205374</v>
       </c>
       <c r="G102">
-        <v>0.036081999871815561</v>
+        <v>0.0090714960941793675</v>
       </c>
       <c r="H102">
-        <v>0.053337468241531363</v>
+        <v>0.013749443523583279</v>
       </c>
       <c r="I102">
-        <v>0.043339034103126124</v>
+        <v>0.0085347360225081301</v>
       </c>
       <c r="J102">
-        <v>0.10337704277738272</v>
+        <v>0.015001734947440512</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>22.172528353861868</v>
+        <v>135.15916763604329</v>
       </c>
       <c r="B103">
-        <v>17.526801681600155</v>
+        <v>101.52187206575475</v>
       </c>
       <c r="C103">
-        <v>10.289115249124906</v>
+        <v>66.118782682197448</v>
       </c>
       <c r="D103">
-        <v>15.003986839864201</v>
+        <v>110.69668513934187</v>
       </c>
       <c r="E103">
-        <v>4.6017166499798279</v>
+        <v>63.084143634573223</v>
       </c>
       <c r="F103">
-        <v>27.83520673208945</v>
+        <v>20.604736693211219</v>
       </c>
       <c r="G103">
-        <v>10.1878483808295</v>
+        <v>8.7135278746850311</v>
       </c>
       <c r="H103">
-        <v>8.4594311849060091</v>
+        <v>6.6114335105366715</v>
       </c>
       <c r="I103">
-        <v>8.0699007234921822</v>
+        <v>6.4715550221302598</v>
       </c>
       <c r="J103">
-        <v>5.0716109393327224</v>
+        <v>3.5748130463413887</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>1.008770226473586e-89</v>
+        <v>0</v>
       </c>
       <c r="B104">
-        <v>1.4712541110232423e-60</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>9.9851886699260114e-24</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>2.8622537119782411e-46</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>4.6991376986406625e-06</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>2.6547479041450629e-128</v>
+        <v>6.7212941607512844e-91</v>
       </c>
       <c r="G104">
-        <v>2.5868564247428523e-23</v>
+        <v>3.8545196553482059e-18</v>
       </c>
       <c r="H104">
-        <v>8.866414974266969e-17</v>
+        <v>4.1693994355083859e-11</v>
       </c>
       <c r="I104">
-        <v>1.9032740796226755e-15</v>
+        <v>1.0548399822679086e-10</v>
       </c>
       <c r="J104">
-        <v>4.6575363725246316e-07</v>
+        <v>0.00035351403848650161</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.40414374316884272</v>
+        <v>0.85513244400930921</v>
       </c>
       <c r="B105">
-        <v>0.56160141072356795</v>
+        <v>0.90317151006856411</v>
       </c>
       <c r="C105">
-        <v>0.44413577178340202</v>
+        <v>0.88214206697313979</v>
       </c>
       <c r="D105">
-        <v>0.56521778981649318</v>
+        <v>0.92803549452440659</v>
       </c>
       <c r="E105">
-        <v>0.27286386373045096</v>
+        <v>0.91696220942411133</v>
       </c>
       <c r="F105">
-        <v>0.51737979292184177</v>
+        <v>0.11969613457598678</v>
       </c>
       <c r="G105">
-        <v>0.29679729866590093</v>
+        <v>0.061260978232020841</v>
       </c>
       <c r="H105">
-        <v>0.34654505611609054</v>
+        <v>0.063949130299239779</v>
       </c>
       <c r="I105">
-        <v>0.26470119514503293</v>
+        <v>0.038501522062443699</v>
       </c>
       <c r="J105">
-        <v>0.32144014578173308</v>
+        <v>0.024219005039843051</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.48262020707815823</v>
+        <v>0.88030386542401307</v>
       </c>
       <c r="B106">
-        <v>0.70320270133409901</v>
+        <v>0.93873902176797908</v>
       </c>
       <c r="C106">
-        <v>0.65345494388390946</v>
+        <v>0.93605086970076001</v>
       </c>
       <c r="D106">
-        <v>0.73529880485496713</v>
+        <v>0.96149847793755627</v>
       </c>
       <c r="E106">
-        <v>0.67855985421826692</v>
+        <v>0.97578099496015691</v>
       </c>
       <c r="F106">
-        <v>0.59585625683115739</v>
+        <v>0.14486755599069062</v>
       </c>
       <c r="G106">
-        <v>0.43839858927643188</v>
+        <v>0.096828489931435779</v>
       </c>
       <c r="H106">
-        <v>0.55586422821659798</v>
+        <v>0.11785793302686003</v>
       </c>
       <c r="I106">
-        <v>0.43478221018350677</v>
+        <v>0.071964505475593354</v>
       </c>
       <c r="J106">
-        <v>0.72713613626954898</v>
+        <v>0.08303779057588874</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B107">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C107">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D107">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="E107">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="F107">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="G107">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="H107">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="I107">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="J107">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B108">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C108">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D108">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="E108">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="F108">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="G108">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="H108">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="I108">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="J108">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="109">
@@ -1856,13 +1856,13 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.98880905669254293</v>
+        <v>0.99739873614116303</v>
       </c>
       <c r="B111">
-        <v>0.99111948449104426</v>
+        <v>0.99806851994851997</v>
       </c>
       <c r="C111">
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -1871,10 +1871,10 @@
         <v>1</v>
       </c>
       <c r="F111">
-        <v>0.011190943307457069</v>
+        <v>0.0026012638588369481</v>
       </c>
       <c r="G111">
-        <v>0.008880515508955876</v>
+        <v>0.0019314800514800515</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -1888,13 +1888,13 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.0045465166553960365</v>
+        <v>0.0010643673356599747</v>
       </c>
       <c r="B112">
-        <v>0.0062124104222832134</v>
+        <v>0.0013663611497739449</v>
       </c>
       <c r="C112">
-        <v>1.2273977354317161e-16</v>
+        <v>0</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>0.0045465166553960365</v>
+        <v>0.0010643673356599747</v>
       </c>
       <c r="G112">
-        <v>0.0062124104222832134</v>
+        <v>0.0013663611497739449</v>
       </c>
       <c r="H112"/>
       <c r="I112"/>
@@ -1914,21 +1914,19 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>217.48717350875074</v>
+        <v>937.08130898503475</v>
       </c>
       <c r="B113">
-        <v>159.53863591111283</v>
-      </c>
-      <c r="C113">
-        <v>8147318274530358</v>
-      </c>
+        <v>730.45733195330058</v>
+      </c>
+      <c r="C113"/>
       <c r="D113"/>
       <c r="E113"/>
       <c r="F113">
-        <v>2.4614323790445352</v>
+        <v>2.4439531087488708</v>
       </c>
       <c r="G113">
-        <v>1.429479848450204</v>
+        <v>1.4135940939184355</v>
       </c>
       <c r="H113"/>
       <c r="I113"/>
@@ -1941,16 +1939,14 @@
       <c r="B114">
         <v>0</v>
       </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
+      <c r="C114"/>
       <c r="D114"/>
       <c r="E114"/>
       <c r="F114">
-        <v>0.013997506272054488</v>
+        <v>0.014558809401467957</v>
       </c>
       <c r="G114">
-        <v>0.15316240101398551</v>
+        <v>0.15753824090774637</v>
       </c>
       <c r="H114"/>
       <c r="I114"/>
@@ -1958,21 +1954,19 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.97988781301877925</v>
+        <v>0.99531215101393955</v>
       </c>
       <c r="B115">
-        <v>0.97892939889818942</v>
-      </c>
-      <c r="C115">
-        <v>0.99999999999999956</v>
-      </c>
+        <v>0.99538990631766622</v>
+      </c>
+      <c r="C115"/>
       <c r="D115"/>
       <c r="E115"/>
       <c r="F115">
-        <v>0.0022696996336933825</v>
+        <v>0.00051467873161346054</v>
       </c>
       <c r="G115">
-        <v>-0.0033095700838989446</v>
+        <v>-0.00074713357937369949</v>
       </c>
       <c r="H115"/>
       <c r="I115"/>
@@ -1980,21 +1974,19 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.99773030036630661</v>
+        <v>0.99948532126838652</v>
       </c>
       <c r="B116">
-        <v>1.003309570083899</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
+        <v>1.0007471335793736</v>
+      </c>
+      <c r="C116"/>
       <c r="D116"/>
       <c r="E116"/>
       <c r="F116">
-        <v>0.020112186981220755</v>
+        <v>0.0046878489860604361</v>
       </c>
       <c r="G116">
-        <v>0.021070601101810697</v>
+        <v>0.0046100936823338023</v>
       </c>
       <c r="H116"/>
       <c r="I116"/>
@@ -2002,23 +1994,25 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B117">
-        <v>1055.0056603773585</v>
-      </c>
-      <c r="C117"/>
+        <v>5449.0011001100111</v>
+      </c>
+      <c r="C117">
+        <v>5449.0011001100111</v>
+      </c>
       <c r="D117">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="E117">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="F117">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="G117">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="H117"/>
       <c r="I117"/>
@@ -2026,25 +2020,25 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B118">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C118">
-        <v>1.9599639845400538</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D118">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="E118">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="F118">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="G118">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="H118">
         <v>1.9599639845400538</v>
@@ -2090,258 +2084,258 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.79442503616796045</v>
+        <v>0.95082283827303393</v>
       </c>
       <c r="B121">
-        <v>0.7988083920380078</v>
+        <v>0.95511785145178207</v>
       </c>
       <c r="C121">
-        <v>0.75316402321083165</v>
+        <v>0.94982934766883675</v>
       </c>
       <c r="D121">
-        <v>0.77863725416543694</v>
+        <v>0.96680734394278023</v>
       </c>
       <c r="E121">
-        <v>0.8754567307692307</v>
+        <v>0.98629801740812373</v>
       </c>
       <c r="F121">
-        <v>0.20557496383203952</v>
+        <v>0.049177161726966234</v>
       </c>
       <c r="G121">
-        <v>0.20119160796199215</v>
+        <v>0.044882148548217912</v>
       </c>
       <c r="H121">
-        <v>0.2468359767891683</v>
+        <v>0.050170652331163287</v>
       </c>
       <c r="I121">
-        <v>0.22136274583456306</v>
+        <v>0.033192656057219758</v>
       </c>
       <c r="J121">
-        <v>0.12454326923076924</v>
+        <v>0.013701982591876211</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.016393983261506997</v>
+        <v>0.0042514174715239175</v>
       </c>
       <c r="B122">
-        <v>0.029176469417270624</v>
+        <v>0.006882857842341928</v>
       </c>
       <c r="C122">
-        <v>0.046432156754178978</v>
+        <v>0.010763750468497982</v>
       </c>
       <c r="D122">
-        <v>0.037042892867909419</v>
+        <v>0.0064214470623870489</v>
       </c>
       <c r="E122">
-        <v>0.069440537245406081</v>
+        <v>0.0078498115242660507</v>
       </c>
       <c r="F122">
-        <v>0.016393983261506997</v>
+        <v>0.0042514174715239175</v>
       </c>
       <c r="G122">
-        <v>0.029176469417270624</v>
+        <v>0.006882857842341928</v>
       </c>
       <c r="H122">
-        <v>0.046432156754178978</v>
+        <v>0.010763750468497982</v>
       </c>
       <c r="I122">
-        <v>0.037042892867909419</v>
+        <v>0.0064214470623870489</v>
       </c>
       <c r="J122">
-        <v>0.069440537245406081</v>
+        <v>0.0078498115242660507</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>48.4583291013397</v>
+        <v>223.64842893968071</v>
       </c>
       <c r="B123">
-        <v>27.378514535592295</v>
+        <v>138.76762724577765</v>
       </c>
       <c r="C123">
-        <v>16.220741741509681</v>
+        <v>88.243345147091631</v>
       </c>
       <c r="D123">
-        <v>21.019882462796993</v>
+        <v>150.55910833646089</v>
       </c>
       <c r="E123">
-        <v>12.607286255221874</v>
+        <v>125.64607626045411</v>
       </c>
       <c r="F123">
-        <v>12.539659248934861</v>
+        <v>11.567238940037265</v>
       </c>
       <c r="G123">
-        <v>6.8956803883508755</v>
+        <v>6.5208594418603489</v>
       </c>
       <c r="H123">
-        <v>5.3160566737394257</v>
+        <v>4.6610753824140172</v>
       </c>
       <c r="I123">
-        <v>5.9758493113352804</v>
+        <v>5.1690305525747071</v>
       </c>
       <c r="J123">
-        <v>1.7935239871579267</v>
+        <v>1.7455173986686683</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>1.46012707380303e-270</v>
+        <v>0</v>
       </c>
       <c r="B124">
-        <v>4.0470060865901744e-125</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>5.3604618182320151e-53</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>3.2770190146499579e-82</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>4.7856071361074525e-34</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.0071579682777228e-33</v>
+        <v>1.3716246002397421e-30</v>
       </c>
       <c r="G124">
-        <v>9.2180233890180088e-12</v>
+        <v>7.6212139390045232e-11</v>
       </c>
       <c r="H124">
-        <v>1.2938479470462869e-07</v>
+        <v>3.2205870736684811e-06</v>
       </c>
       <c r="I124">
-        <v>3.1270306656549642e-09</v>
+        <v>2.4370716806094646e-07</v>
       </c>
       <c r="J124">
-        <v>0.073175489633029223</v>
+        <v>0.0809512094077528</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.76225651451833132</v>
+        <v>0.94248836184887785</v>
       </c>
       <c r="B125">
-        <v>0.74155788292513358</v>
+        <v>0.94162470080213434</v>
       </c>
       <c r="C125">
-        <v>0.66205414369223559</v>
+        <v>0.92872809729385564</v>
       </c>
       <c r="D125">
-        <v>0.70595113010526755</v>
+        <v>0.95421874272709029</v>
       </c>
       <c r="E125">
-        <v>0.73919945942104781</v>
+        <v>0.97090925130334194</v>
       </c>
       <c r="F125">
-        <v>0.17340644218241033</v>
+        <v>0.040842685302810142</v>
       </c>
       <c r="G125">
-        <v>0.14394109884911793</v>
+        <v>0.031388997898570178</v>
       </c>
       <c r="H125">
-        <v>0.15572609727057229</v>
+        <v>0.029069401956182128</v>
       </c>
       <c r="I125">
-        <v>0.14867662177439361</v>
+        <v>0.020604054841529863</v>
       </c>
       <c r="J125">
-        <v>-0.011714002117413649</v>
+        <v>-0.0016867835129055382</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.82659355781758959</v>
+        <v>0.95915731469719001</v>
       </c>
       <c r="B126">
-        <v>0.85605890115088201</v>
+        <v>0.96861100210142981</v>
       </c>
       <c r="C126">
-        <v>0.84427390272942771</v>
+        <v>0.97093059804381787</v>
       </c>
       <c r="D126">
-        <v>0.85132337822560633</v>
+        <v>0.97939594515847017</v>
       </c>
       <c r="E126">
-        <v>1.0117140021174136</v>
+        <v>1.0016867835129055</v>
       </c>
       <c r="F126">
-        <v>0.23774348548166871</v>
+        <v>0.057511638151122327</v>
       </c>
       <c r="G126">
-        <v>0.25844211707486636</v>
+        <v>0.058375299197865646</v>
       </c>
       <c r="H126">
-        <v>0.3379458563077643</v>
+        <v>0.071271902706144447</v>
       </c>
       <c r="I126">
-        <v>0.2940488698947325</v>
+        <v>0.045781257272909652</v>
       </c>
       <c r="J126">
-        <v>0.26080054057895213</v>
+        <v>0.02909074869665796</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B127">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C127">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D127">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="E127">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="F127">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="G127">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="H127">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="I127">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="J127">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B128">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C128">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D128">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="E128">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="F128">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="G128">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="H128">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="I128">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="J128">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="129">
@@ -2378,162 +2372,162 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.59508922300140243</v>
+        <v>0.92299032732722153</v>
       </c>
       <c r="B131">
-        <v>0.72387260507128659</v>
+        <v>0.93512444294612462</v>
       </c>
       <c r="C131">
-        <v>0.81195770781156829</v>
+        <v>0.96471147346106234</v>
       </c>
       <c r="D131">
-        <v>0.40491077699859745</v>
+        <v>0.077009672672778334</v>
       </c>
       <c r="E131">
-        <v>0.27612739492871341</v>
+        <v>0.064875557053875293</v>
       </c>
       <c r="F131">
-        <v>0.18804229218843171</v>
+        <v>0.035288526538937659</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.028659857224462237</v>
+        <v>0.0067014800342560243</v>
       </c>
       <c r="B132">
-        <v>0.018493243979833714</v>
+        <v>0.0049075537820048561</v>
       </c>
       <c r="C132">
-        <v>0.028732584306515895</v>
+        <v>0.0058242913141931755</v>
       </c>
       <c r="D132">
-        <v>0.028659857224462237</v>
+        <v>0.0067014800342560243</v>
       </c>
       <c r="E132">
-        <v>0.018493243979833714</v>
+        <v>0.0049075537820048561</v>
       </c>
       <c r="F132">
-        <v>0.028732584306515895</v>
+        <v>0.0058242913141931755</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>20.763858603366383</v>
+        <v>137.72932585177639</v>
       </c>
       <c r="B133">
-        <v>39.142543399127071</v>
+        <v>190.54797654486495</v>
       </c>
       <c r="C133">
-        <v>28.259125568020515</v>
+        <v>165.63585532031399</v>
       </c>
       <c r="D133">
-        <v>14.12815052871203</v>
+        <v>11.491442528982732</v>
       </c>
       <c r="E133">
-        <v>14.931257881517242</v>
+        <v>13.219530531028035</v>
       </c>
       <c r="F133">
-        <v>6.5445659249588637</v>
+        <v>6.0588532810752946</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>1.4533543935369485e-80</v>
+        <v>0</v>
       </c>
       <c r="B134">
-        <v>1.0152844851112233e-207</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>2.8991548896690258e-131</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>1.2317001822423369e-41</v>
+        <v>3.23940724043029e-30</v>
       </c>
       <c r="E134">
-        <v>7.0532142917041804e-46</v>
+        <v>2.7110572074280414e-39</v>
       </c>
       <c r="F134">
-        <v>9.2925833218822877e-11</v>
+        <v>1.462837205401652e-09</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.53885241813866247</v>
+        <v>0.90985274963070828</v>
       </c>
       <c r="B135">
-        <v>0.68758488232278414</v>
+        <v>0.92550367726729887</v>
       </c>
       <c r="C135">
-        <v>0.75557819676960147</v>
+        <v>0.95329353603885003</v>
       </c>
       <c r="D135">
-        <v>0.34867397213585744</v>
+        <v>0.063872094976265031</v>
       </c>
       <c r="E135">
-        <v>0.23983967218021099</v>
+        <v>0.055254791375049524</v>
       </c>
       <c r="F135">
-        <v>0.13166278114646493</v>
+        <v>0.023870589116725363</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.6513260278641424</v>
+        <v>0.93612790502373477</v>
       </c>
       <c r="B136">
-        <v>0.76016032781978904</v>
+        <v>0.94474520862495037</v>
       </c>
       <c r="C136">
-        <v>0.8683372188535351</v>
+        <v>0.97612941088327465</v>
       </c>
       <c r="D136">
-        <v>0.46114758186133747</v>
+        <v>0.090147250369291637</v>
       </c>
       <c r="E136">
-        <v>0.31241511767721586</v>
+        <v>0.074496322732701056</v>
       </c>
       <c r="F136">
-        <v>0.2444218032303985</v>
+        <v>0.046706463961149955</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B137">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C137">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D137">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="E137">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="F137">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B138">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C138">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D138">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="E138">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="F138">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="139">
@@ -2558,162 +2552,162 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.62894933520336616</v>
+        <v>0.92828390032925656</v>
       </c>
       <c r="B141">
-        <v>0.5055978652066887</v>
+        <v>0.8840675825146086</v>
       </c>
       <c r="C141">
-        <v>0.35408314967203336</v>
+        <v>0.87947248311572623</v>
       </c>
       <c r="D141">
-        <v>0.37105066479663396</v>
+        <v>0.071716099670743508</v>
       </c>
       <c r="E141">
-        <v>0.4944021347933113</v>
+        <v>0.11593241748539138</v>
       </c>
       <c r="F141">
-        <v>0.64591685032796653</v>
+        <v>0.12052751688427379</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.027846355556654823</v>
+        <v>0.0063507900904544645</v>
       </c>
       <c r="B142">
-        <v>0.020717551350204429</v>
+        <v>0.0062707288113653427</v>
       </c>
       <c r="C142">
-        <v>0.035132591005179396</v>
+        <v>0.0098755957820521097</v>
       </c>
       <c r="D142">
-        <v>0.027846355556654823</v>
+        <v>0.0063507900904544645</v>
       </c>
       <c r="E142">
-        <v>0.020717551350204429</v>
+        <v>0.0062707288113653427</v>
       </c>
       <c r="F142">
-        <v>0.035132591005179396</v>
+        <v>0.0098755957820521097</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>22.586414725752419</v>
+        <v>146.16825420265596</v>
       </c>
       <c r="B143">
-        <v>24.404325427275928</v>
+        <v>140.98322684793607</v>
       </c>
       <c r="C143">
-        <v>10.078480964294176</v>
+        <v>89.055131713073749</v>
       </c>
       <c r="D143">
-        <v>13.324927351506108</v>
+        <v>11.292468913204386</v>
       </c>
       <c r="E143">
-        <v>23.863927084627829</v>
+        <v>18.487869747336291</v>
       </c>
       <c r="F143">
-        <v>18.38511854228863</v>
+        <v>12.204581834274778</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>1.8649962029088677e-92</v>
+        <v>0</v>
       </c>
       <c r="B144">
-        <v>1.1867029095971163e-104</v>
+        <v>0</v>
       </c>
       <c r="C144">
-        <v>7.1708161188675972e-23</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>1.493191249626697e-37</v>
+        <v>3.0149156574742056e-29</v>
       </c>
       <c r="E144">
-        <v>5.3681256822924816e-101</v>
+        <v>4.5775412667306864e-74</v>
       </c>
       <c r="F144">
-        <v>1.0611927995389515e-65</v>
+        <v>8.0926980475469458e-34</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.57430879560425596</v>
+        <v>0.91583381500167194</v>
       </c>
       <c r="B145">
-        <v>0.46494557292936373</v>
+        <v>0.87177444927359871</v>
       </c>
       <c r="C145">
-        <v>0.28514544878933817</v>
+        <v>0.8601123706893864</v>
       </c>
       <c r="D145">
-        <v>0.31641012519752376</v>
+        <v>0.059266014343158882</v>
       </c>
       <c r="E145">
-        <v>0.45374984251598632</v>
+        <v>0.10363928424438151</v>
       </c>
       <c r="F145">
-        <v>0.5769791494452714</v>
+        <v>0.10116740445793393</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.68358987480247635</v>
+        <v>0.94073398565684119</v>
       </c>
       <c r="B146">
-        <v>0.54625015748401362</v>
+        <v>0.89636071575561849</v>
       </c>
       <c r="C146">
-        <v>0.42302085055472854</v>
+        <v>0.89883259554206607</v>
       </c>
       <c r="D146">
-        <v>0.42569120439574415</v>
+        <v>0.084166184998328133</v>
       </c>
       <c r="E146">
-        <v>0.53505442707063622</v>
+        <v>0.12822555072640124</v>
       </c>
       <c r="F146">
-        <v>0.71485455121066166</v>
+        <v>0.13988762931061366</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B147">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C147">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D147">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="E147">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="F147">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B148">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C148">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D148">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="E148">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="F148">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="149">
@@ -2741,19 +2735,19 @@
         <v>1</v>
       </c>
       <c r="B151">
-        <v>0.98843304956256284</v>
+        <v>0.997228797638541</v>
       </c>
       <c r="C151">
-        <v>0.99424266666666683</v>
+        <v>0.99907956204379555</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151">
-        <v>0.011566950437437254</v>
+        <v>0.0027712023614589357</v>
       </c>
       <c r="F151">
-        <v>0.0057573333333333339</v>
+        <v>0.00092043795620437953</v>
       </c>
     </row>
     <row r="152">
@@ -2761,33 +2755,33 @@
         <v>0</v>
       </c>
       <c r="B152">
-        <v>0.0043587981803262137</v>
+        <v>0.0010523679510650887</v>
       </c>
       <c r="C152">
-        <v>0.0057188223102572705</v>
+        <v>0.00091931752005418288</v>
       </c>
       <c r="D152"/>
       <c r="E152">
-        <v>0.0043587981803262137</v>
+        <v>0.0010523679510650887</v>
       </c>
       <c r="F152">
-        <v>0.0057188223102572705</v>
+        <v>0.00091931752005418288</v>
       </c>
     </row>
     <row r="153">
       <c r="A153"/>
       <c r="B153">
-        <v>226.76733555224808</v>
+        <v>947.60468202139566</v>
       </c>
       <c r="C153">
-        <v>173.85444287775732</v>
+        <v>1086.7622342114307</v>
       </c>
       <c r="D153"/>
       <c r="E153">
-        <v>2.6537017679886201</v>
+        <v>2.6333017445601947</v>
       </c>
       <c r="F153">
-        <v>1.0067340828210365</v>
+        <v>1.0012187694955825</v>
       </c>
     </row>
     <row r="154">
@@ -2800,80 +2794,80 @@
       </c>
       <c r="D154"/>
       <c r="E154">
-        <v>0.0080811109703265056</v>
+        <v>0.0084798007992601902</v>
       </c>
       <c r="F154">
-        <v>0.31429341802788974</v>
+        <v>0.3167655126938782</v>
       </c>
     </row>
     <row r="155">
       <c r="A155"/>
       <c r="B155">
-        <v>0.97988014991678762</v>
+        <v>0.99516573609814007</v>
       </c>
       <c r="C155">
-        <v>0.98302110712476798</v>
+        <v>0.99727733249364536</v>
       </c>
       <c r="D155"/>
       <c r="E155">
-        <v>0.0030140507916620336</v>
+        <v>0.00070814082105803569</v>
       </c>
       <c r="F155">
-        <v>-0.005464226208565486</v>
+        <v>-0.00088179159394581586</v>
       </c>
     </row>
     <row r="156">
       <c r="A156"/>
       <c r="B156">
-        <v>0.99698594920833805</v>
+        <v>0.99929185917894192</v>
       </c>
       <c r="C156">
-        <v>1.0054642262085656</v>
+        <v>1.0008817915939459</v>
       </c>
       <c r="D156"/>
       <c r="E156">
-        <v>0.020119850083212473</v>
+        <v>0.0048342639018598352</v>
       </c>
       <c r="F156">
-        <v>0.016978892875232153</v>
+        <v>0.0027226675063545748</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B157">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C157">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D157"/>
       <c r="E157">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="F157">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B158">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C158">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D158">
         <v>1.9599639845400538</v>
       </c>
       <c r="E158">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="F158">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="159">
@@ -2898,162 +2892,162 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.77596144179523141</v>
+        <v>0.95760805574236429</v>
       </c>
       <c r="B161">
-        <v>0.78209648015946198</v>
+        <v>0.9488199760803957</v>
       </c>
       <c r="C161">
-        <v>0.83971647584973186</v>
+        <v>0.9711849364413947</v>
       </c>
       <c r="D161">
-        <v>0.22403855820476859</v>
+        <v>0.042391944257635872</v>
       </c>
       <c r="E161">
-        <v>0.21790351984053813</v>
+        <v>0.051180023919604446</v>
       </c>
       <c r="F161">
-        <v>0.16028352415026834</v>
+        <v>0.028815063558605268</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.024542597261343089</v>
+        <v>0.0051135076164384426</v>
       </c>
       <c r="B162">
-        <v>0.017234748232075808</v>
+        <v>0.0044157657277185611</v>
       </c>
       <c r="C162">
-        <v>0.02682833113072744</v>
+        <v>0.0052101838236461697</v>
       </c>
       <c r="D162">
-        <v>0.024542597261343089</v>
+        <v>0.0051135076164384426</v>
       </c>
       <c r="E162">
-        <v>0.017234748232075808</v>
+        <v>0.0044157657277185611</v>
       </c>
       <c r="F162">
-        <v>0.02682833113072744</v>
+        <v>0.0052101838236461697</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>31.616924383852563</v>
+        <v>187.2702902923098</v>
       </c>
       <c r="B163">
-        <v>45.37904874664153</v>
+        <v>214.8709951083865</v>
       </c>
       <c r="C163">
-        <v>31.299616504582904</v>
+        <v>186.40128051408058</v>
       </c>
       <c r="D163">
-        <v>9.1285594519228201</v>
+        <v>8.2901889343741413</v>
       </c>
       <c r="E163">
-        <v>12.643266783264936</v>
+        <v>11.59029420386552</v>
       </c>
       <c r="F163">
-        <v>5.974412771679634</v>
+        <v>5.530527239332609</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>6.9935754226207986e-155</v>
+        <v>0</v>
       </c>
       <c r="B164">
-        <v>3.1653824043514748e-250</v>
+        <v>0</v>
       </c>
       <c r="C164">
-        <v>1.2128561858228273e-152</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>3.4432681926922691e-19</v>
+        <v>1.4105183458263577e-16</v>
       </c>
       <c r="E164">
-        <v>3.2172679184727064e-34</v>
+        <v>1.0549992309493851e-30</v>
       </c>
       <c r="F164">
-        <v>3.1537969492249027e-09</v>
+        <v>3.34140551840573e-08</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.72780358663910316</v>
+        <v>0.94758353828215069</v>
       </c>
       <c r="B165">
-        <v>0.74827819678160801</v>
+        <v>0.94016331142707132</v>
       </c>
       <c r="C165">
-        <v>0.78707351916033397</v>
+        <v>0.96097089499885124</v>
       </c>
       <c r="D165">
-        <v>0.17588070304864034</v>
+        <v>0.032367426797422237</v>
       </c>
       <c r="E165">
-        <v>0.18408523646268413</v>
+        <v>0.042523359266280064</v>
       </c>
       <c r="F165">
-        <v>0.10764056746087047</v>
+        <v>0.018601022116061853</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.82411929695135966</v>
+        <v>0.96763257320257789</v>
       </c>
       <c r="B166">
-        <v>0.81591476353731596</v>
+        <v>0.95747664073372007</v>
       </c>
       <c r="C166">
-        <v>0.89235943253912975</v>
+        <v>0.98139897788393815</v>
       </c>
       <c r="D166">
-        <v>0.27219641336089684</v>
+        <v>0.052416461717849507</v>
       </c>
       <c r="E166">
-        <v>0.25172180321839216</v>
+        <v>0.059836688572928828</v>
       </c>
       <c r="F166">
-        <v>0.2129264808396662</v>
+        <v>0.039029105001148687</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B167">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C167">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D167">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="E167">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="F167">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B168">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C168">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D168">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="E168">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="F168">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="169">
@@ -3078,306 +3072,306 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.64292522222222226</v>
+        <v>0.92737201002127456</v>
       </c>
       <c r="B171">
-        <v>0.607396509511403</v>
+        <v>0.93407171690113255</v>
       </c>
       <c r="C171">
-        <v>0.73878475226682072</v>
+        <v>0.95366466143219131</v>
       </c>
       <c r="D171">
-        <v>0.75196068245961767</v>
+        <v>0.9421272288169007</v>
       </c>
       <c r="E171">
-        <v>0.66629203358881706</v>
+        <v>0.91421024707640108</v>
       </c>
       <c r="F171">
-        <v>0.68879494300412691</v>
+        <v>0.88165194899596688</v>
       </c>
       <c r="G171">
-        <v>0.35707477777777774</v>
+        <v>0.072627989978725466</v>
       </c>
       <c r="H171">
-        <v>0.392603490488597</v>
+        <v>0.065928283098867543</v>
       </c>
       <c r="I171">
-        <v>0.26121524773317928</v>
+        <v>0.046335338567808658</v>
       </c>
       <c r="J171">
-        <v>0.24803931754038239</v>
+        <v>0.057872771183099289</v>
       </c>
       <c r="K171">
-        <v>0.33370796641118294</v>
+        <v>0.085789752923599041</v>
       </c>
       <c r="L171">
-        <v>0.31120505699587309</v>
+        <v>0.11834805100403319</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.12969299820880487</v>
+        <v>0.031000999882617855</v>
       </c>
       <c r="B172">
-        <v>0.035363671891954711</v>
+        <v>0.0071025035855988242</v>
       </c>
       <c r="C172">
-        <v>0.02499142571658184</v>
+        <v>0.0049324423759807366</v>
       </c>
       <c r="D172">
-        <v>0.026450686454532902</v>
+        <v>0.0069872379268647441</v>
       </c>
       <c r="E172">
-        <v>0.046658940565111606</v>
+        <v>0.013127611005747117</v>
       </c>
       <c r="F172">
-        <v>0.043878875300975825</v>
+        <v>0.017791261463333135</v>
       </c>
       <c r="G172">
-        <v>0.12969299820880487</v>
+        <v>0.031000999882617848</v>
       </c>
       <c r="H172">
-        <v>0.035363671891954711</v>
+        <v>0.007102503585598826</v>
       </c>
       <c r="I172">
-        <v>0.024991425716581837</v>
+        <v>0.0049324423759807322</v>
       </c>
       <c r="J172">
-        <v>0.026450686454532902</v>
+        <v>0.0069872379268647433</v>
       </c>
       <c r="K172">
-        <v>0.046658940565111606</v>
+        <v>0.01312761100574711</v>
       </c>
       <c r="L172">
-        <v>0.043878875300975825</v>
+        <v>0.017791261463333131</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>4.9572855212053692</v>
+        <v>29.914261266819608</v>
       </c>
       <c r="B173">
-        <v>17.175719517112324</v>
+        <v>131.51302292829175</v>
       </c>
       <c r="C173">
-        <v>29.561528847737414</v>
+        <v>193.34532240583357</v>
       </c>
       <c r="D173">
-        <v>28.428777595325993</v>
+        <v>134.83542977613249</v>
       </c>
       <c r="E173">
-        <v>14.280050629504114</v>
+        <v>69.640260263361725</v>
       </c>
       <c r="F173">
-        <v>15.697643530731261</v>
+        <v>49.555336523663918</v>
       </c>
       <c r="G173">
-        <v>2.7532309585663963</v>
+        <v>2.3427628222871522</v>
       </c>
       <c r="H173">
-        <v>11.101887035037073</v>
+        <v>9.2824005372619602</v>
       </c>
       <c r="I173">
-        <v>10.45219471251945</v>
+        <v>9.3939949087789731</v>
       </c>
       <c r="J173">
-        <v>9.3774245884599878</v>
+        <v>8.2826392615869437</v>
       </c>
       <c r="K173">
-        <v>7.1520690862129674</v>
+        <v>6.5350620829670625</v>
       </c>
       <c r="L173">
-        <v>7.0923663120634313</v>
+        <v>6.6520325862189358</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>8.4082305524290951e-07</v>
+        <v>1.3672504358631574e-168</v>
       </c>
       <c r="B174">
-        <v>2.6733358410509319e-58</v>
+        <v>0</v>
       </c>
       <c r="C174">
-        <v>3.3458797037079095e-134</v>
+        <v>0</v>
       </c>
       <c r="D174">
-        <v>1.6425406621158668e-131</v>
+        <v>0</v>
       </c>
       <c r="E174">
-        <v>6.2366322719624821e-40</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.947757449924371e-47</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>0.0060091607993913642</v>
+        <v>0.019218724029954622</v>
       </c>
       <c r="H174">
-        <v>4.0345451058429109e-27</v>
+        <v>2.4202171458027632e-20</v>
       </c>
       <c r="I174">
-        <v>3.4105004532149073e-24</v>
+        <v>8.8663276142877481e-21</v>
       </c>
       <c r="J174">
-        <v>4.2051376937519429e-20</v>
+        <v>1.8234194389858663e-16</v>
       </c>
       <c r="K174">
-        <v>2.5509873090760893e-12</v>
+        <v>7.2385204235388298e-11</v>
       </c>
       <c r="L174">
-        <v>3.3977048672029729e-12</v>
+        <v>3.6285863139328882e-11</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.3884200504625509</v>
+        <v>0.86658205841795999</v>
       </c>
       <c r="B175">
-        <v>0.53800297396453023</v>
+        <v>0.92014766468788201</v>
       </c>
       <c r="C175">
-        <v>0.68973548775706606</v>
+        <v>0.94399470112434392</v>
       </c>
       <c r="D175">
-        <v>0.70005692201512726</v>
+        <v>0.92842672792340952</v>
       </c>
       <c r="E175">
-        <v>0.57465353862670954</v>
+        <v>0.88847207160681807</v>
       </c>
       <c r="F175">
-        <v>0.60263628746255204</v>
+        <v>0.84676269964448547</v>
       </c>
       <c r="G175">
-        <v>0.10256960601810639</v>
+        <v>0.01183803837541101</v>
       </c>
       <c r="H175">
-        <v>0.32320995494172422</v>
+        <v>0.052004230885617037</v>
       </c>
       <c r="I175">
-        <v>0.21216598322342461</v>
+        <v>0.036665378259961239</v>
       </c>
       <c r="J175">
-        <v>0.19613555709589203</v>
+        <v>0.044172270289608059</v>
       </c>
       <c r="K175">
-        <v>0.24206947144907542</v>
+        <v>0.060051577454015993</v>
       </c>
       <c r="L175">
-        <v>0.22504640145429822</v>
+        <v>0.083458801652551762</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.89743039398189361</v>
+        <v>0.98816196162458914</v>
       </c>
       <c r="B176">
-        <v>0.67679004505827578</v>
+        <v>0.9479957691143831</v>
       </c>
       <c r="C176">
-        <v>0.78783401677657539</v>
+        <v>0.9633346217400387</v>
       </c>
       <c r="D176">
-        <v>0.80386444290410808</v>
+        <v>0.95582772971039187</v>
       </c>
       <c r="E176">
-        <v>0.75793052855092458</v>
+        <v>0.9399484225459841</v>
       </c>
       <c r="F176">
-        <v>0.77495359854570178</v>
+        <v>0.91654119834744829</v>
       </c>
       <c r="G176">
-        <v>0.6115799495374491</v>
+        <v>0.13341794158203993</v>
       </c>
       <c r="H176">
-        <v>0.46199702603546977</v>
+        <v>0.07985233531211805</v>
       </c>
       <c r="I176">
-        <v>0.31026451224293394</v>
+        <v>0.056005298875656077</v>
       </c>
       <c r="J176">
-        <v>0.29994307798487274</v>
+        <v>0.071573272076590519</v>
       </c>
       <c r="K176">
-        <v>0.42534646137329046</v>
+        <v>0.1115279283931821</v>
       </c>
       <c r="L176">
-        <v>0.39736371253744796</v>
+        <v>0.15323730035551461</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>988.67443334760151</v>
+        <v>2527.708110898101</v>
       </c>
       <c r="B177">
-        <v>1024.1121697465965</v>
+        <v>4955.3611980788592</v>
       </c>
       <c r="C177">
-        <v>886.45561855155142</v>
+        <v>4588.2427509841864</v>
       </c>
       <c r="D177">
-        <v>1023.6862571715651</v>
+        <v>2875.805174204907</v>
       </c>
       <c r="E177">
-        <v>587.91886390846514</v>
+        <v>3651.8011557510995</v>
       </c>
       <c r="F177">
-        <v>661.50655252659908</v>
+        <v>2220.4812642542929</v>
       </c>
       <c r="G177">
-        <v>988.67443334760151</v>
+        <v>2527.7081108981215</v>
       </c>
       <c r="H177">
-        <v>1024.1121697465965</v>
+        <v>4955.3611980788282</v>
       </c>
       <c r="I177">
-        <v>886.4556185515537</v>
+        <v>4588.2427509843119</v>
       </c>
       <c r="J177">
-        <v>1023.6862571715651</v>
+        <v>2875.8051742049292</v>
       </c>
       <c r="K177">
-        <v>587.91886390846389</v>
+        <v>3651.8011557511877</v>
       </c>
       <c r="L177">
-        <v>661.50655252659783</v>
+        <v>2220.4812642543234</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1.9623663210400897</v>
+        <v>1.9609029332437524</v>
       </c>
       <c r="B178">
-        <v>1.9622830954570625</v>
+        <v>1.9604428277210852</v>
       </c>
       <c r="C178">
-        <v>1.9626437109272412</v>
+        <v>1.9604811512723881</v>
       </c>
       <c r="D178">
-        <v>1.962284061463196</v>
+        <v>1.9607892327260144</v>
       </c>
       <c r="E178">
-        <v>1.9640071945960247</v>
+        <v>1.9606138130018618</v>
       </c>
       <c r="F178">
-        <v>1.9635566078344489</v>
+        <v>1.9610329162654581</v>
       </c>
       <c r="G178">
-        <v>1.9623663210400897</v>
+        <v>1.9609029332437489</v>
       </c>
       <c r="H178">
-        <v>1.9622830954570625</v>
+        <v>1.9604428277210852</v>
       </c>
       <c r="I178">
-        <v>1.9626437109272412</v>
+        <v>1.9604811512723881</v>
       </c>
       <c r="J178">
-        <v>1.962284061463196</v>
+        <v>1.9607892327260144</v>
       </c>
       <c r="K178">
-        <v>1.9640071945960247</v>
+        <v>1.9606138130018618</v>
       </c>
       <c r="L178">
-        <v>1.9635566078344489</v>
+        <v>1.9610329162654581</v>
       </c>
     </row>
     <row r="179">
@@ -3420,306 +3414,306 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.40734077777777777</v>
+        <v>0.86716873158990193</v>
       </c>
       <c r="B181">
-        <v>0.58296005455788324</v>
+        <v>0.9269970761146441</v>
       </c>
       <c r="C181">
-        <v>0.48517285264495297</v>
+        <v>0.90601453490625905</v>
       </c>
       <c r="D181">
-        <v>0.48308376434877714</v>
+        <v>0.87554022993635683</v>
       </c>
       <c r="E181">
-        <v>0.60089611163758683</v>
+        <v>0.8989931970626831</v>
       </c>
       <c r="F181">
-        <v>0.47681226457444847</v>
+        <v>0.82138698120765841</v>
       </c>
       <c r="G181">
-        <v>0.59265922222222223</v>
+        <v>0.13283126841009801</v>
       </c>
       <c r="H181">
-        <v>0.4170399454421167</v>
+        <v>0.073002923885355925</v>
       </c>
       <c r="I181">
-        <v>0.51482714735504709</v>
+        <v>0.093985465093741019</v>
       </c>
       <c r="J181">
-        <v>0.51691623565122291</v>
+        <v>0.1244597700636432</v>
       </c>
       <c r="K181">
-        <v>0.39910388836241312</v>
+        <v>0.10100680293731693</v>
       </c>
       <c r="L181">
-        <v>0.52318773542555153</v>
+        <v>0.17861301879234154</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.13097712365655231</v>
+        <v>0.038489934978946892</v>
       </c>
       <c r="B182">
-        <v>0.035197421897902155</v>
+        <v>0.0074097613481058072</v>
       </c>
       <c r="C182">
-        <v>0.028329655914915253</v>
+        <v>0.0066381336372671488</v>
       </c>
       <c r="D182">
-        <v>0.030977258239668532</v>
+        <v>0.0096131647636544283</v>
       </c>
       <c r="E182">
-        <v>0.047116299865235946</v>
+        <v>0.014325946188622225</v>
       </c>
       <c r="F182">
-        <v>0.049825330710647292</v>
+        <v>0.020927795211372859</v>
       </c>
       <c r="G182">
-        <v>0.13097712365655231</v>
+        <v>0.038489934978946885</v>
       </c>
       <c r="H182">
-        <v>0.035197421897902155</v>
+        <v>0.0074097613481057993</v>
       </c>
       <c r="I182">
-        <v>0.02832965591491525</v>
+        <v>0.0066381336372671488</v>
       </c>
       <c r="J182">
-        <v>0.030977258239668532</v>
+        <v>0.0096131647636544283</v>
       </c>
       <c r="K182">
-        <v>0.047116299865235946</v>
+        <v>0.014325946188622223</v>
       </c>
       <c r="L182">
-        <v>0.049825330710647292</v>
+        <v>0.020927795211372856</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>3.1100146835252325</v>
+        <v>22.529753091664698</v>
       </c>
       <c r="B183">
-        <v>16.562578254989436</v>
+        <v>125.10484920700137</v>
       </c>
       <c r="C183">
-        <v>17.125970541333501</v>
+        <v>136.48633552958356</v>
       </c>
       <c r="D183">
-        <v>15.59478765393623</v>
+        <v>91.0772104153057</v>
       </c>
       <c r="E183">
-        <v>12.753465644719462</v>
+        <v>62.752797283063252</v>
       </c>
       <c r="F183">
-        <v>9.5696758611289532</v>
+        <v>39.248615198666002</v>
       </c>
       <c r="G183">
-        <v>4.5249063781266941</v>
+        <v>3.4510650247331851</v>
       </c>
       <c r="H183">
-        <v>11.848593531987444</v>
+        <v>9.8522638524678108</v>
       </c>
       <c r="I183">
-        <v>18.172728567592532</v>
+        <v>14.158417143954015</v>
       </c>
       <c r="J183">
-        <v>16.68695891843894</v>
+        <v>12.94680504532724</v>
       </c>
       <c r="K183">
-        <v>8.4706118584003232</v>
+        <v>7.0506200154191081</v>
       </c>
       <c r="L183">
-        <v>10.500436785134079</v>
+        <v>8.5347269976761488</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.001934860888246389</v>
+        <v>1.530016096744437e-87</v>
       </c>
       <c r="B184">
-        <v>1.7187263608265413e-54</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>2.8317332707164803e-56</v>
+        <v>0</v>
       </c>
       <c r="D184">
-        <v>1.8431529251135514e-48</v>
+        <v>0</v>
       </c>
       <c r="E184">
-        <v>2.3238039542823265e-34</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>7.8445854655338567e-20</v>
+        <v>8.4300958281243167e-281</v>
       </c>
       <c r="G184">
-        <v>6.926214165451291e-06</v>
+        <v>0.00058745832758639433</v>
       </c>
       <c r="H184">
-        <v>2.3455589564344042e-30</v>
+        <v>1.4594458405859586e-22</v>
       </c>
       <c r="I184">
-        <v>4.5175058422385022e-62</v>
+        <v>1.1806340039073923e-44</v>
       </c>
       <c r="J184">
-        <v>2.3503919389713273e-54</v>
+        <v>3.6360946711289799e-37</v>
       </c>
       <c r="K184">
-        <v>9.8800583741502259e-17</v>
+        <v>2.9850079451858848e-12</v>
       </c>
       <c r="L184">
-        <v>3.6606977796451986e-23</v>
+        <v>2.0410312056788984e-17</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.15025448780216849</v>
+        <v>0.79161628602008438</v>
       </c>
       <c r="B185">
-        <v>0.51388879163275913</v>
+        <v>0.91246839641201483</v>
       </c>
       <c r="C185">
-        <v>0.42956386513329875</v>
+        <v>0.89300090303243262</v>
       </c>
       <c r="D185">
-        <v>0.42228371161000083</v>
+        <v>0.85668973345141608</v>
       </c>
       <c r="E185">
-        <v>0.50842535040806658</v>
+        <v>0.87088678116584284</v>
       </c>
       <c r="F185">
-        <v>0.37888662205190216</v>
+        <v>0.78035546146270029</v>
       </c>
       <c r="G185">
-        <v>0.33557293224661294</v>
+        <v>0.057278822840280449</v>
       </c>
       <c r="H185">
-        <v>0.34796868251699259</v>
+        <v>0.058474244182726662</v>
       </c>
       <c r="I185">
-        <v>0.45921815984339287</v>
+        <v>0.080971833219914621</v>
       </c>
       <c r="J185">
-        <v>0.4561161829124466</v>
+        <v>0.1056092735787024</v>
       </c>
       <c r="K185">
-        <v>0.30663312713289281</v>
+        <v>0.072900387040476716</v>
       </c>
       <c r="L185">
-        <v>0.42526209290300521</v>
+        <v>0.13758149904738348</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.664427067753387</v>
+        <v>0.94272117715971948</v>
       </c>
       <c r="B186">
-        <v>0.65203131748300736</v>
+        <v>0.94152575581727338</v>
       </c>
       <c r="C186">
-        <v>0.54078184015660724</v>
+        <v>0.91902816678008548</v>
       </c>
       <c r="D186">
-        <v>0.5438838170875534</v>
+        <v>0.89439072642129758</v>
       </c>
       <c r="E186">
-        <v>0.69336687286710708</v>
+        <v>0.92709961295952337</v>
       </c>
       <c r="F186">
-        <v>0.57473790709699479</v>
+        <v>0.86241850095261652</v>
       </c>
       <c r="G186">
-        <v>0.84974551219783145</v>
+        <v>0.20838371397991556</v>
       </c>
       <c r="H186">
-        <v>0.48611120836724081</v>
+        <v>0.087531603587985188</v>
       </c>
       <c r="I186">
-        <v>0.57043613486670131</v>
+        <v>0.10699909696756742</v>
       </c>
       <c r="J186">
-        <v>0.57771628838999922</v>
+        <v>0.143310266548584</v>
       </c>
       <c r="K186">
-        <v>0.49157464959193342</v>
+        <v>0.12911321883415713</v>
       </c>
       <c r="L186">
-        <v>0.62111337794809784</v>
+        <v>0.21964453853729959</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>827.89565187116057</v>
+        <v>805.25042248297132</v>
       </c>
       <c r="B187">
-        <v>976.81767065897441</v>
+        <v>3024.4055647281525</v>
       </c>
       <c r="C187">
-        <v>802.37970705828434</v>
+        <v>5033.9003929269411</v>
       </c>
       <c r="D187">
-        <v>858.25180024117856</v>
+        <v>2523.9344094331268</v>
       </c>
       <c r="E187">
-        <v>898.88658877472562</v>
+        <v>1211.5980067287394</v>
       </c>
       <c r="F187">
-        <v>439.306512066278</v>
+        <v>3600.0971904352391</v>
       </c>
       <c r="G187">
-        <v>827.89565187116079</v>
+        <v>805.25042248297279</v>
       </c>
       <c r="H187">
-        <v>976.81767065897384</v>
+        <v>3024.4055647282999</v>
       </c>
       <c r="I187">
-        <v>802.37970705828616</v>
+        <v>5033.9003929269493</v>
       </c>
       <c r="J187">
-        <v>858.25180024117776</v>
+        <v>2523.9344094331327</v>
       </c>
       <c r="K187">
-        <v>898.88658877472437</v>
+        <v>1211.5980067287489</v>
       </c>
       <c r="L187">
-        <v>439.30651206627766</v>
+        <v>3600.0971904352614</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1.9628335299967337</v>
+        <v>1.9629143465984815</v>
       </c>
       <c r="B188">
-        <v>1.9623955165091485</v>
+        <v>1.9607486692325544</v>
       </c>
       <c r="C188">
-        <v>1.9629249179259076</v>
+        <v>1.9604353550170424</v>
       </c>
       <c r="D188">
-        <v>1.9627318941002212</v>
+        <v>1.9609043377900883</v>
       </c>
       <c r="E188">
-        <v>1.9626066031078224</v>
+        <v>1.961923877611836</v>
       </c>
       <c r="F188">
-        <v>1.9653786763851897</v>
+        <v>1.9606231488093013</v>
       </c>
       <c r="G188">
-        <v>1.9628335299967337</v>
+        <v>1.9629143465984815</v>
       </c>
       <c r="H188">
-        <v>1.9623955165091485</v>
+        <v>1.9607486692325544</v>
       </c>
       <c r="I188">
-        <v>1.9629249179259076</v>
+        <v>1.9604353550170424</v>
       </c>
       <c r="J188">
-        <v>1.9627318941002212</v>
+        <v>1.9609043377900883</v>
       </c>
       <c r="K188">
-        <v>1.9626066031078224</v>
+        <v>1.961923877611836</v>
       </c>
       <c r="L188">
-        <v>1.9653786763851897</v>
+        <v>1.9606231488093013</v>
       </c>
     </row>
     <row r="189">
@@ -3765,16 +3759,16 @@
         <v>1</v>
       </c>
       <c r="B191">
-        <v>0.98691211878979224</v>
+        <v>0.99812101286790789</v>
       </c>
       <c r="C191">
-        <v>0.98990590774798604</v>
+        <v>0.99837257461371975</v>
       </c>
       <c r="D191">
         <v>1</v>
       </c>
       <c r="E191">
-        <v>0.97987452822177823</v>
+        <v>0.99424401626245706</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -3783,16 +3777,16 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>0.013087881210207703</v>
+        <v>0.00187898713209208</v>
       </c>
       <c r="I191">
-        <v>0.010094092252013947</v>
+        <v>0.0016274253862801308</v>
       </c>
       <c r="J191">
         <v>0</v>
       </c>
       <c r="K191">
-        <v>0.020125471778221778</v>
+        <v>0.0057559837375429088</v>
       </c>
       <c r="L191">
         <v>0</v>
@@ -3803,56 +3797,56 @@
         <v>0</v>
       </c>
       <c r="B192">
-        <v>0.0091168831110533827</v>
+        <v>0.0013255462612006472</v>
       </c>
       <c r="C192">
-        <v>0.005831865213103281</v>
+        <v>0.00093942139324680769</v>
       </c>
       <c r="D192">
         <v>0</v>
       </c>
       <c r="E192">
-        <v>0.011359180698195345</v>
+        <v>0.0032990680203768782</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
       <c r="G192"/>
       <c r="H192">
-        <v>0.0091168831110533827</v>
+        <v>0.0013255462612006474</v>
       </c>
       <c r="I192">
-        <v>0.005831865213103281</v>
+        <v>0.00093942139324680769</v>
       </c>
       <c r="J192"/>
       <c r="K192">
-        <v>0.011359180698195345</v>
+        <v>0.0032990680203768786</v>
       </c>
       <c r="L192"/>
     </row>
     <row r="193">
       <c r="A193"/>
       <c r="B193">
-        <v>108.25104443790137</v>
+        <v>752.98844113055281</v>
       </c>
       <c r="C193">
-        <v>169.74087561623057</v>
+        <v>1062.7526494400624</v>
       </c>
       <c r="D193"/>
       <c r="E193">
-        <v>86.262781996016031</v>
+        <v>301.37117819985923</v>
       </c>
       <c r="F193"/>
       <c r="G193"/>
       <c r="H193">
-        <v>1.4355653188467283</v>
+        <v>1.4175190916310529</v>
       </c>
       <c r="I193">
-        <v>1.7308514314312535</v>
+        <v>1.7323699438602933</v>
       </c>
       <c r="J193"/>
       <c r="K193">
-        <v>1.7717362116987143</v>
+        <v>1.7447302395678879</v>
       </c>
       <c r="L193"/>
     </row>
@@ -3871,134 +3865,134 @@
       <c r="F194"/>
       <c r="G194"/>
       <c r="H194">
-        <v>0.15142266306346225</v>
+        <v>0.15638840777885979</v>
       </c>
       <c r="I194">
-        <v>0.083770758568681672</v>
+        <v>0.08326430357806032</v>
       </c>
       <c r="J194"/>
       <c r="K194">
-        <v>0.07672766094075574</v>
+        <v>0.081088258708983438</v>
       </c>
       <c r="L194"/>
     </row>
     <row r="195">
       <c r="A195"/>
       <c r="B195">
-        <v>0.96902282005355034</v>
+        <v>0.99552241257704621</v>
       </c>
       <c r="C195">
-        <v>0.97846252882251794</v>
+        <v>0.99653093342286159</v>
       </c>
       <c r="D195"/>
       <c r="E195">
-        <v>0.95758531047811946</v>
+        <v>0.98777652401478577</v>
       </c>
       <c r="F195"/>
       <c r="G195"/>
       <c r="H195">
-        <v>-0.0048014175260342479</v>
+        <v>-0.0007196131587695546</v>
       </c>
       <c r="I195">
-        <v>-0.0013492866734540979</v>
+        <v>-0.00021421580457799496</v>
       </c>
       <c r="J195"/>
       <c r="K195">
-        <v>-0.0021637459654370202</v>
+        <v>-0.00071150851012837836</v>
       </c>
       <c r="L195"/>
     </row>
     <row r="196">
       <c r="A196"/>
       <c r="B196">
-        <v>1.0048014175260342</v>
+        <v>1.0007196131587694</v>
       </c>
       <c r="C196">
-        <v>1.0013492866734541</v>
+        <v>1.0002142158045779</v>
       </c>
       <c r="D196"/>
       <c r="E196">
-        <v>1.0021637459654371</v>
+        <v>1.0007115085101284</v>
       </c>
       <c r="F196"/>
       <c r="G196"/>
       <c r="H196">
-        <v>0.030977179946449655</v>
+        <v>0.0044775874229537145</v>
       </c>
       <c r="I196">
-        <v>0.02153747117748199</v>
+        <v>0.0034690665771382563</v>
       </c>
       <c r="J196"/>
       <c r="K196">
-        <v>0.042414689521880572</v>
+        <v>0.012223475985214196</v>
       </c>
       <c r="L196"/>
     </row>
     <row r="197">
       <c r="A197">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B197">
-        <v>1054.3411144700253</v>
+        <v>5447.6362117424851</v>
       </c>
       <c r="C197">
-        <v>1054.6131488486019</v>
+        <v>5448.748231553056</v>
       </c>
       <c r="D197">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="E197">
-        <v>1052.4668270866214</v>
+        <v>5444.6328573723395</v>
       </c>
       <c r="F197">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="G197"/>
       <c r="H197">
-        <v>1054.3411144700253</v>
+        <v>5447.6362117424806</v>
       </c>
       <c r="I197">
-        <v>1054.6131488486019</v>
+        <v>5448.748231553056</v>
       </c>
       <c r="J197"/>
       <c r="K197">
-        <v>1052.4668270866214</v>
+        <v>5444.6328573723376</v>
       </c>
       <c r="L197"/>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B198">
-        <v>1.9622165293040579</v>
+        <v>1.9603995476611173</v>
       </c>
       <c r="C198">
-        <v>1.9622159476108223</v>
+        <v>1.9603994587488429</v>
       </c>
       <c r="D198">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="E198">
-        <v>1.9622205452898489</v>
+        <v>1.9603997879778345</v>
       </c>
       <c r="F198">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="G198">
         <v>1.9599639845400538</v>
       </c>
       <c r="H198">
-        <v>1.9622165293040579</v>
+        <v>1.9603995476611173</v>
       </c>
       <c r="I198">
-        <v>1.9622159476108223</v>
+        <v>1.9603994587488429</v>
       </c>
       <c r="J198">
         <v>1.9599639845400538</v>
       </c>
       <c r="K198">
-        <v>1.9622205452898489</v>
+        <v>1.9603997879778345</v>
       </c>
       <c r="L198">
         <v>1.9599639845400538</v>
@@ -4044,306 +4038,306 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.94973399999999997</v>
+        <v>0.98698588217346883</v>
       </c>
       <c r="B201">
-        <v>0.8227313171409214</v>
+        <v>0.97134450220369817</v>
       </c>
       <c r="C201">
-        <v>0.78613648734024033</v>
+        <v>0.96159705283097163</v>
       </c>
       <c r="D201">
-        <v>0.76495555319160524</v>
+        <v>0.94463998179611297</v>
       </c>
       <c r="E201">
-        <v>0.75293732655181789</v>
+        <v>0.93513104329964669</v>
       </c>
       <c r="F201">
-        <v>0.8343927924214245</v>
+        <v>0.93906285221134844</v>
       </c>
       <c r="G201">
-        <v>0.050265999999999998</v>
+        <v>0.013014117826531255</v>
       </c>
       <c r="H201">
-        <v>0.17726868285907854</v>
+        <v>0.028655497796301721</v>
       </c>
       <c r="I201">
-        <v>0.21386351265975972</v>
+        <v>0.038402947169028381</v>
       </c>
       <c r="J201">
-        <v>0.23504444680839481</v>
+        <v>0.055360018203887126</v>
       </c>
       <c r="K201">
-        <v>0.24706267344818214</v>
+        <v>0.06486895670035335</v>
       </c>
       <c r="L201">
-        <v>0.16560720757857536</v>
+        <v>0.060937147788651648</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.055288829816867328</v>
+        <v>0.014397041949436593</v>
       </c>
       <c r="B202">
-        <v>0.027871879747011882</v>
+        <v>0.0047829479085359618</v>
       </c>
       <c r="C202">
-        <v>0.023564829067643244</v>
+        <v>0.0045500120299583743</v>
       </c>
       <c r="D202">
-        <v>0.026621988847084378</v>
+        <v>0.0069094324013632387</v>
       </c>
       <c r="E202">
-        <v>0.040906681312838374</v>
+        <v>0.011637110358610809</v>
       </c>
       <c r="F202">
-        <v>0.036883430513364637</v>
+        <v>0.013472477277315584</v>
       </c>
       <c r="G202">
-        <v>0.055288829816867335</v>
+        <v>0.014397041949436581</v>
       </c>
       <c r="H202">
-        <v>0.027871879747011875</v>
+        <v>0.0047829479085359644</v>
       </c>
       <c r="I202">
-        <v>0.023564829067643248</v>
+        <v>0.0045500120299583752</v>
       </c>
       <c r="J202">
-        <v>0.026621988847084374</v>
+        <v>0.0069094324013632387</v>
       </c>
       <c r="K202">
-        <v>0.04090668131283838</v>
+        <v>0.011637110358610809</v>
       </c>
       <c r="L202">
-        <v>0.036883430513364637</v>
+        <v>0.013472477277315585</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>17.17768314405993</v>
+        <v>68.554768794856017</v>
       </c>
       <c r="B203">
-        <v>29.518329033014922</v>
+        <v>203.08490093947569</v>
       </c>
       <c r="C203">
-        <v>33.360585179023452</v>
+        <v>211.33945284091234</v>
       </c>
       <c r="D203">
-        <v>28.733974669791909</v>
+        <v>136.7174504246882</v>
       </c>
       <c r="E203">
-        <v>18.406218798187179</v>
+        <v>80.357667366083035</v>
       </c>
       <c r="F203">
-        <v>22.622429118112642</v>
+        <v>69.702314791987419</v>
       </c>
       <c r="G203">
-        <v>0.90915290062198084</v>
+        <v>0.90394387070884064</v>
       </c>
       <c r="H203">
-        <v>6.3601265672826894</v>
+        <v>5.9911791523301412</v>
       </c>
       <c r="I203">
-        <v>9.0755384664943186</v>
+        <v>8.4401858536140395</v>
       </c>
       <c r="J203">
-        <v>8.8289589541367697</v>
+        <v>8.0122381967243115</v>
       </c>
       <c r="K203">
-        <v>6.0396655391998912</v>
+        <v>5.5743182543898415</v>
       </c>
       <c r="L203">
-        <v>4.4900163914679228</v>
+        <v>4.523084102079368</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>1.0078249392453301e-22</v>
+        <v>9.6839943684791445e-62</v>
       </c>
       <c r="B204">
-        <v>1.7287236917253533e-134</v>
+        <v>0</v>
       </c>
       <c r="C204">
-        <v>2.3774783764060043e-151</v>
+        <v>0</v>
       </c>
       <c r="D204">
-        <v>7.5641711550121066e-121</v>
+        <v>0</v>
       </c>
       <c r="E204">
-        <v>1.810416336423839e-64</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.0033884188561965e-87</v>
+        <v>0</v>
       </c>
       <c r="G204">
-        <v>0.36759260050787246</v>
+        <v>0.36940668785003283</v>
       </c>
       <c r="H204">
-        <v>3.20263502276883e-10</v>
+        <v>2.2329857438817599e-09</v>
       </c>
       <c r="I204">
-        <v>9.4234191288759082e-19</v>
+        <v>4.7105992057749487e-17</v>
       </c>
       <c r="J204">
-        <v>8.2679568324669275e-18</v>
+        <v>2.0504592383629593e-15</v>
       </c>
       <c r="K204">
-        <v>2.2565757667580158e-09</v>
+        <v>2.8704523988614896e-08</v>
       </c>
       <c r="L204">
-        <v>8.1840931392058476e-06</v>
+        <v>6.286276121111386e-06</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.83870752603744636</v>
+        <v>0.95822588207126136</v>
       </c>
       <c r="B205">
-        <v>0.76802990298839713</v>
+        <v>0.96196776732664524</v>
       </c>
       <c r="C205">
-        <v>0.73987710462428924</v>
+        <v>0.9526758614294687</v>
       </c>
       <c r="D205">
-        <v>0.71268780857560032</v>
+        <v>0.93108826608663553</v>
       </c>
       <c r="E205">
-        <v>0.67265382750081604</v>
+        <v>0.91230703023030824</v>
       </c>
       <c r="F205">
-        <v>0.76199151905099127</v>
+        <v>0.91264861394859642</v>
       </c>
       <c r="G205">
-        <v>-0.060760473962553622</v>
+        <v>-0.015745882275676148</v>
       </c>
       <c r="H205">
-        <v>0.12256726870655424</v>
+        <v>0.019278762919248842</v>
       </c>
       <c r="I205">
-        <v>0.16760412994380858</v>
+        <v>0.029481755767525476</v>
       </c>
       <c r="J205">
-        <v>0.18277670219238992</v>
+        <v>0.04180830249440963</v>
       </c>
       <c r="K205">
-        <v>0.16677917439718024</v>
+        <v>0.042044943631014908</v>
       </c>
       <c r="L205">
-        <v>0.093205934208142133</v>
+        <v>0.034522909525899675</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>1.0607604739625536</v>
+        <v>1.0157458822756762</v>
       </c>
       <c r="B206">
-        <v>0.87743273129344568</v>
+        <v>0.9807212370807511</v>
       </c>
       <c r="C206">
-        <v>0.83239587005619142</v>
+        <v>0.97051824423247457</v>
       </c>
       <c r="D206">
-        <v>0.81722329780761016</v>
+        <v>0.95819169750559041</v>
       </c>
       <c r="E206">
-        <v>0.83322082560281974</v>
+        <v>0.95795505636898515</v>
       </c>
       <c r="F206">
-        <v>0.90679406579185773</v>
+        <v>0.96547709047410046</v>
       </c>
       <c r="G206">
-        <v>0.16129247396255361</v>
+        <v>0.041774117928738655</v>
       </c>
       <c r="H206">
-        <v>0.23197009701160284</v>
+        <v>0.0380322326733546</v>
       </c>
       <c r="I206">
-        <v>0.26012289537571087</v>
+        <v>0.047324138570531291</v>
       </c>
       <c r="J206">
-        <v>0.28731219142439973</v>
+        <v>0.068911733913364623</v>
       </c>
       <c r="K206">
-        <v>0.32734617249918407</v>
+        <v>0.087692969769691792</v>
       </c>
       <c r="L206">
-        <v>0.23800848094900859</v>
+        <v>0.087351386051403621</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>50.447624674994891</v>
+        <v>64.161887548935084</v>
       </c>
       <c r="B207">
-        <v>900.36473088086871</v>
+        <v>4872.5071001316073</v>
       </c>
       <c r="C207">
-        <v>765.23041202609636</v>
+        <v>3240.9422114013023</v>
       </c>
       <c r="D207">
-        <v>705.99798687352632</v>
+        <v>1730.7414147588288</v>
       </c>
       <c r="E207">
-        <v>900.74897941339827</v>
+        <v>1760.0191725784402</v>
       </c>
       <c r="F207">
-        <v>788.90204643116192</v>
+        <v>3688.3503726274721</v>
       </c>
       <c r="G207">
-        <v>50.447624674994856</v>
+        <v>64.161887548935411</v>
       </c>
       <c r="H207">
-        <v>900.36473088087064</v>
+        <v>4872.5071001315264</v>
       </c>
       <c r="I207">
-        <v>765.23041202609375</v>
+        <v>3240.9422114012709</v>
       </c>
       <c r="J207">
-        <v>705.99798687352916</v>
+        <v>1730.7414147588293</v>
       </c>
       <c r="K207">
-        <v>900.74897941339634</v>
+        <v>1760.0191725784382</v>
       </c>
       <c r="L207">
-        <v>788.90204643116112</v>
+        <v>3688.3503726274475</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>2.0081176311798523</v>
+        <v>1.9976325833608415</v>
       </c>
       <c r="B208">
-        <v>1.9626022589448351</v>
+        <v>1.9604509721543359</v>
       </c>
       <c r="C208">
-        <v>1.9630688846994302</v>
+        <v>1.9606962229470237</v>
       </c>
       <c r="D208">
-        <v>1.9633298216834476</v>
+        <v>1.9613355949185822</v>
       </c>
       <c r="E208">
-        <v>1.9626011320015169</v>
+        <v>1.9613127628758762</v>
       </c>
       <c r="F208">
-        <v>1.9629755790801175</v>
+        <v>1.9606073715356869</v>
       </c>
       <c r="G208">
-        <v>2.0081176311798523</v>
+        <v>1.9976325833608415</v>
       </c>
       <c r="H208">
-        <v>1.9626022589448351</v>
+        <v>1.9604509721543359</v>
       </c>
       <c r="I208">
-        <v>1.9630688846994302</v>
+        <v>1.9606962229470237</v>
       </c>
       <c r="J208">
-        <v>1.9633298216834476</v>
+        <v>1.9613355949185822</v>
       </c>
       <c r="K208">
-        <v>1.9626011320015169</v>
+        <v>1.9613127628758762</v>
       </c>
       <c r="L208">
-        <v>1.9629755790801175</v>
+        <v>1.9606073715356869</v>
       </c>
     </row>
     <row r="209">
@@ -4386,114 +4380,114 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.65900527585993784</v>
+        <v>0.94703686373230056</v>
       </c>
       <c r="B211">
-        <v>0.71892655066447797</v>
+        <v>0.93124118122434396</v>
       </c>
       <c r="C211">
-        <v>0.34099472414006216</v>
+        <v>0.052963136267699384</v>
       </c>
       <c r="D211">
-        <v>0.28107344933552214</v>
+        <v>0.068758818775656066</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.028729803127815898</v>
+        <v>0.0052345109381975782</v>
       </c>
       <c r="B212">
-        <v>0.016313818136470603</v>
+        <v>0.004493655742776049</v>
       </c>
       <c r="C212">
-        <v>0.028729803127815898</v>
+        <v>0.0052345109381975782</v>
       </c>
       <c r="D212">
-        <v>0.016313818136470606</v>
+        <v>0.0044936557427760482</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>22.938036607076356</v>
+        <v>180.92174701967437</v>
       </c>
       <c r="B213">
-        <v>44.068564737599402</v>
+        <v>207.23465136852036</v>
       </c>
       <c r="C213">
-        <v>11.869024045274942</v>
+        <v>10.118067741766227</v>
       </c>
       <c r="D213">
-        <v>17.22916407331795</v>
+        <v>15.301309826902514</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>5.5828663054212136e-94</v>
+        <v>0</v>
       </c>
       <c r="B214">
-        <v>6.7611736994796323e-240</v>
+        <v>0</v>
       </c>
       <c r="C214">
-        <v>1.6785458271046652e-30</v>
+        <v>7.8977589896849062e-24</v>
       </c>
       <c r="D214">
-        <v>1.073866721819947e-58</v>
+        <v>9.373300334548648e-52</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.60262800651345105</v>
+        <v>0.93677485613640576</v>
       </c>
       <c r="B215">
-        <v>0.68691470394981646</v>
+        <v>0.92243177182468272</v>
       </c>
       <c r="C215">
-        <v>0.28461745479357536</v>
+        <v>0.042701128671804631</v>
       </c>
       <c r="D215">
-        <v>0.24906160262086061</v>
+        <v>0.059949409375994793</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.71538254520642464</v>
+        <v>0.95729887132819536</v>
       </c>
       <c r="B216">
-        <v>0.75093839737913948</v>
+        <v>0.9400505906240052</v>
       </c>
       <c r="C216">
-        <v>0.39737199348654895</v>
+        <v>0.063225143863594138</v>
       </c>
       <c r="D216">
-        <v>0.3130852960501837</v>
+        <v>0.077568228175317347</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>1005.0921261686391</v>
+        <v>4861.9464541595144</v>
       </c>
       <c r="B217">
-        <v>1037.3356103160129</v>
+        <v>5315.3724201889727</v>
       </c>
       <c r="C217">
-        <v>1005.0921261686389</v>
+        <v>4861.9464541595171</v>
       </c>
       <c r="D217">
-        <v>1037.3356103160115</v>
+        <v>5315.37242018898</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>1.9623270335571115</v>
+        <v>1.9604520302002306</v>
       </c>
       <c r="B218">
-        <v>1.9622534986519782</v>
+        <v>1.9604103883176156</v>
       </c>
       <c r="C218">
-        <v>1.9623270335571115</v>
+        <v>1.9604520302002306</v>
       </c>
       <c r="D218">
-        <v>1.9622534986519782</v>
+        <v>1.9604103883176156</v>
       </c>
     </row>
     <row r="219">
@@ -4512,114 +4506,114 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.52759011876432116</v>
+        <v>0.92531336341225967</v>
       </c>
       <c r="B221">
-        <v>0.50585042950696779</v>
+        <v>0.87989471077139747</v>
       </c>
       <c r="C221">
-        <v>0.47240988123567884</v>
+        <v>0.074686636587740302</v>
       </c>
       <c r="D221">
-        <v>0.49414957049303226</v>
+        <v>0.1201052892286025</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.030042989853547628</v>
+        <v>0.0061645632775406498</v>
       </c>
       <c r="B222">
-        <v>0.018065977076916432</v>
+        <v>0.0056285794028019774</v>
       </c>
       <c r="C222">
-        <v>0.030042989853547628</v>
+        <v>0.006164563277540649</v>
       </c>
       <c r="D222">
-        <v>0.018065977076916432</v>
+        <v>0.0056285794028019783</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>17.5611722180847</v>
+        <v>150.10201400372569</v>
       </c>
       <c r="B223">
-        <v>28.00017000759464</v>
+        <v>156.32624998296637</v>
       </c>
       <c r="C223">
-        <v>15.724462962526824</v>
+        <v>12.115478943957976</v>
       </c>
       <c r="D223">
-        <v>27.352496263511011</v>
+        <v>21.338472931342597</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>1.9562078415904429e-60</v>
+        <v>0</v>
       </c>
       <c r="B224">
-        <v>4.4970298173690074e-129</v>
+        <v>0</v>
       </c>
       <c r="C224">
-        <v>5.4513919331600454e-50</v>
+        <v>3.3045402929498648e-33</v>
       </c>
       <c r="D224">
-        <v>1.3951048253360056e-124</v>
+        <v>6.7009209166277401e-97</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.46863611249580195</v>
+        <v>0.91322739311410195</v>
       </c>
       <c r="B225">
-        <v>0.470400572987895</v>
+        <v>0.86886031746722214</v>
       </c>
       <c r="C225">
-        <v>0.41345587496715963</v>
+        <v>0.062600666289582538</v>
       </c>
       <c r="D225">
-        <v>0.45869971397395948</v>
+        <v>0.10907089592442722</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.58654412503284037</v>
+        <v>0.93739933371041739</v>
       </c>
       <c r="B226">
-        <v>0.54130028602604052</v>
+        <v>0.8909291040755728</v>
       </c>
       <c r="C226">
-        <v>0.53136388750419805</v>
+        <v>0.086772606885898065</v>
       </c>
       <c r="D226">
-        <v>0.52959942701210505</v>
+        <v>0.13113968253277777</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>1007.4292407965462</v>
+        <v>4009.6432633498807</v>
       </c>
       <c r="B227">
-        <v>1041.6169902908257</v>
+        <v>5175.8005715839381</v>
       </c>
       <c r="C227">
-        <v>1007.4292407965467</v>
+        <v>4009.6432633499076</v>
       </c>
       <c r="D227">
-        <v>1041.6169902908257</v>
+        <v>5175.8005715839317</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>1.9623215450894158</v>
+        <v>1.9605558016073215</v>
       </c>
       <c r="B228">
-        <v>1.9622440772588146</v>
+        <v>1.9604224289138077</v>
       </c>
       <c r="C228">
-        <v>1.9623215450894158</v>
+        <v>1.9605558016073215</v>
       </c>
       <c r="D228">
-        <v>1.9622440772588146</v>
+        <v>1.9604224289138077</v>
       </c>
     </row>
     <row r="229">
@@ -4638,44 +4632,44 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.99052292080466997</v>
+        <v>0.99864635663220425</v>
       </c>
       <c r="B231">
-        <v>0.99361870678291031</v>
+        <v>0.99840397035998407</v>
       </c>
       <c r="C231">
-        <v>0.0094770791953298957</v>
+        <v>0.0013536433677957612</v>
       </c>
       <c r="D231">
-        <v>0.0063812932170898284</v>
+        <v>0.0015960296400158874</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.005710832664983595</v>
+        <v>0.00080693850736051904</v>
       </c>
       <c r="B232">
-        <v>0.0028399907921508338</v>
+        <v>0.00071275192856681878</v>
       </c>
       <c r="C232">
-        <v>0.005710832664983595</v>
+        <v>0.00080693850736051904</v>
       </c>
       <c r="D232">
-        <v>0.0028399907921508333</v>
+        <v>0.00071275192856681878</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>173.44632191346398</v>
+        <v>1237.5742978219716</v>
       </c>
       <c r="B233">
-        <v>349.86687616349798</v>
+        <v>1400.7734393192682</v>
       </c>
       <c r="C233">
-        <v>1.6594916628251652</v>
+        <v>1.6775049838971046</v>
       </c>
       <c r="D233">
-        <v>2.2469415164043656</v>
+        <v>2.2392498372121397</v>
       </c>
     </row>
     <row r="234">
@@ -4686,66 +4680,66 @@
         <v>0</v>
       </c>
       <c r="C234">
-        <v>0.097314118101690911</v>
+        <v>0.093501131338637369</v>
       </c>
       <c r="D234">
-        <v>0.024849882757963362</v>
+        <v>0.025179856519837059</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.97931703173065809</v>
+        <v>0.99706443481270624</v>
       </c>
       <c r="B235">
-        <v>0.98804603324651485</v>
+        <v>0.99700669186322499</v>
       </c>
       <c r="C235">
-        <v>-0.0017288098786819826</v>
+        <v>-0.00022827845170220748</v>
       </c>
       <c r="D235">
-        <v>0.00080861968069440709</v>
+        <v>0.00019875114325677932</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>1.0017288098786818</v>
+        <v>1.0002282784517023</v>
       </c>
       <c r="B236">
-        <v>0.99919138031930577</v>
+        <v>0.99980124885674315</v>
       </c>
       <c r="C236">
-        <v>0.020682968269341774</v>
+        <v>0.0029355651872937298</v>
       </c>
       <c r="D236">
-        <v>0.01195396675348525</v>
+        <v>0.0029933081367749955</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>1054.4375080691213</v>
+        <v>5448.6486334178762</v>
       </c>
       <c r="B237">
-        <v>1054.8910962437499</v>
+        <v>5448.7170871736698</v>
       </c>
       <c r="C237">
-        <v>1054.4375080691213</v>
+        <v>5448.6486334178762</v>
       </c>
       <c r="D237">
-        <v>1054.8910962437503</v>
+        <v>5448.7170871736698</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>1.9622163231504994</v>
+        <v>1.9603994667107978</v>
       </c>
       <c r="B238">
-        <v>1.9622153535839542</v>
+        <v>1.9603994612385205</v>
       </c>
       <c r="C238">
-        <v>1.9622163231504994</v>
+        <v>1.9603994667107978</v>
       </c>
       <c r="D238">
-        <v>1.9622153535839542</v>
+        <v>1.9603994612385205</v>
       </c>
     </row>
     <row r="239">
@@ -4764,114 +4758,114 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.82288168457107091</v>
+        <v>0.97260518569481547</v>
       </c>
       <c r="B241">
-        <v>0.78160431304564415</v>
+        <v>0.94664955450101063</v>
       </c>
       <c r="C241">
-        <v>0.17711831542892911</v>
+        <v>0.0273948143051846</v>
       </c>
       <c r="D241">
-        <v>0.21839568695435582</v>
+        <v>0.053350445498989284</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.022967457030593649</v>
+        <v>0.0038435771364265501</v>
       </c>
       <c r="B242">
-        <v>0.015050442009735751</v>
+        <v>0.0040099912472572928</v>
       </c>
       <c r="C242">
-        <v>0.022967457030593646</v>
+        <v>0.003843577136426551</v>
       </c>
       <c r="D242">
-        <v>0.015050442009735751</v>
+        <v>0.0040099912472572902</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>35.828158227310787</v>
+        <v>253.04687565059922</v>
       </c>
       <c r="B243">
-        <v>51.932316176497942</v>
+        <v>236.07272338773532</v>
       </c>
       <c r="C243">
-        <v>7.7117077085634627</v>
+        <v>7.127426699872113</v>
       </c>
       <c r="D243">
-        <v>14.510915148743218</v>
+        <v>13.304379538354189</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>1.1234268679469292e-175</v>
+        <v>0</v>
       </c>
       <c r="B244">
-        <v>2.4845728571496276e-289</v>
+        <v>0</v>
       </c>
       <c r="C244">
-        <v>3.2706549413222208e-14</v>
+        <v>1.3507934904857049e-12</v>
       </c>
       <c r="D244">
-        <v>1.5555580995032942e-43</v>
+        <v>1.0247013308258034e-39</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>0.77780595186596535</v>
+        <v>0.96506807198734212</v>
       </c>
       <c r="B245">
-        <v>0.75207112817829624</v>
+        <v>0.93878821507873289</v>
       </c>
       <c r="C245">
-        <v>0.13204258272382355</v>
+        <v>0.019857700597711237</v>
       </c>
       <c r="D245">
-        <v>0.18886250208700794</v>
+        <v>0.045489106076711534</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.86795741727617648</v>
+        <v>0.98014229940228881</v>
       </c>
       <c r="B246">
-        <v>0.81113749791299206</v>
+        <v>0.95451089392328836</v>
       </c>
       <c r="C246">
-        <v>0.22219404813403468</v>
+        <v>0.034931928012657959</v>
       </c>
       <c r="D246">
-        <v>0.2479288718217037</v>
+        <v>0.061211784921267033</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>904.09507778562875</v>
+        <v>2375.0845292330146</v>
       </c>
       <c r="B247">
-        <v>1025.3759110776323</v>
+        <v>5005.2876732472187</v>
       </c>
       <c r="C247">
-        <v>904.09507778563113</v>
+        <v>2375.0845292329986</v>
       </c>
       <c r="D247">
-        <v>1025.3759110776325</v>
+        <v>5005.2876732472923</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>1.9625913589415993</v>
+        <v>1.9609633005780558</v>
       </c>
       <c r="B248">
-        <v>1.9622802339123078</v>
+        <v>1.9604380502462841</v>
       </c>
       <c r="C248">
-        <v>1.9625913589415993</v>
+        <v>1.9609633005780558</v>
       </c>
       <c r="D248">
-        <v>1.9622802339123078</v>
+        <v>1.9604380502462841</v>
       </c>
     </row>
     <row r="249">
@@ -4890,114 +4884,114 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>0.53297952683639815</v>
+        <v>0.92105492223156404</v>
       </c>
       <c r="B251">
-        <v>0.71362754940842854</v>
+        <v>0.93443264778254476</v>
       </c>
       <c r="C251">
-        <v>0.46702047316360173</v>
+        <v>0.078945077768435928</v>
       </c>
       <c r="D251">
-        <v>0.28637245059157146</v>
+        <v>0.065567352217455327</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>0.069505713840077352</v>
+        <v>0.017619022751658438</v>
       </c>
       <c r="B252">
-        <v>0.014758213032605895</v>
+        <v>0.0038551511795737467</v>
       </c>
       <c r="C252">
-        <v>0.069505713840077352</v>
+        <v>0.017619022751658438</v>
       </c>
       <c r="D252">
-        <v>0.014758213032605895</v>
+        <v>0.0038551511795737467</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>7.6681397454993032</v>
+        <v>52.276163962888759</v>
       </c>
       <c r="B253">
-        <v>48.354604167305581</v>
+        <v>242.38547446169474</v>
       </c>
       <c r="C253">
-        <v>6.7191666319426435</v>
+        <v>4.4806729000338574</v>
       </c>
       <c r="D253">
-        <v>19.40427678871945</v>
+        <v>17.007725290997517</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>3.9503121990773156e-14</v>
+        <v>0</v>
       </c>
       <c r="B254">
-        <v>6.944832282989983e-270</v>
+        <v>0</v>
       </c>
       <c r="C254">
-        <v>2.984520563772691e-11</v>
+        <v>7.5930459867644258e-06</v>
       </c>
       <c r="D254">
-        <v>5.7623174427333288e-72</v>
+        <v>3.0122033768934922e-63</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>0.39659436498940925</v>
+        <v>0.88651459992166615</v>
       </c>
       <c r="B255">
-        <v>0.68466876081652284</v>
+        <v>0.92687501157463836</v>
       </c>
       <c r="C255">
-        <v>0.33063531131661283</v>
+        <v>0.044404755458538087</v>
       </c>
       <c r="D255">
-        <v>0.25741366199966575</v>
+        <v>0.058009716009548948</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>0.66936468868338705</v>
+        <v>0.95559524454146194</v>
       </c>
       <c r="B256">
-        <v>0.74258633800033425</v>
+        <v>0.94199028399045115</v>
       </c>
       <c r="C256">
-        <v>0.60340563501059064</v>
+        <v>0.11348540007833377</v>
       </c>
       <c r="D256">
-        <v>0.31533123918347716</v>
+        <v>0.073124988425361706</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B257">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C257">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D257">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B258">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C258">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D258">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="259">
@@ -5016,114 +5010,114 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>0.73469804548081163</v>
+        <v>0.96042121371978273</v>
       </c>
       <c r="B261">
-        <v>0.50196943815287476</v>
+        <v>0.88709381739252624</v>
       </c>
       <c r="C261">
-        <v>0.26530195451918831</v>
+        <v>0.039578786280217285</v>
       </c>
       <c r="D261">
-        <v>0.49803056184712524</v>
+        <v>0.11290618260747368</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>0.053213054974397163</v>
+        <v>0.010768933625510985</v>
       </c>
       <c r="B262">
-        <v>0.016205537035673581</v>
+        <v>0.0047764705211305342</v>
       </c>
       <c r="C262">
-        <v>0.053213054974397163</v>
+        <v>0.010768933625510985</v>
       </c>
       <c r="D262">
-        <v>0.016205537035673581</v>
+        <v>0.0047764705211305342</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>13.806725545719992</v>
+        <v>89.184430614801087</v>
       </c>
       <c r="B263">
-        <v>30.975180708166544</v>
+        <v>185.7216146248845</v>
       </c>
       <c r="C263">
-        <v>4.985655393151835</v>
+        <v>3.6752744196006013</v>
       </c>
       <c r="D263">
-        <v>30.732123270632769</v>
+        <v>23.637994227744155</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>5.5499970115021685e-40</v>
+        <v>0</v>
       </c>
       <c r="B264">
-        <v>2.357188687155791e-150</v>
+        <v>0</v>
       </c>
       <c r="C264">
-        <v>7.2149826989047638e-07</v>
+        <v>0.00023987783806756792</v>
       </c>
       <c r="D264">
-        <v>1.2196476398100016e-148</v>
+        <v>1.1027954229810474e-117</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>0.63028258502306755</v>
+        <v>0.93930980228670347</v>
       </c>
       <c r="B265">
-        <v>0.47017068853477784</v>
+        <v>0.87773002726471994</v>
       </c>
       <c r="C265">
-        <v>0.16088649406144417</v>
+        <v>0.018467374847137993</v>
       </c>
       <c r="D265">
-        <v>0.46623181222902832</v>
+        <v>0.10354239247966734</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>0.83911350593855571</v>
+        <v>0.98153262515286199</v>
       </c>
       <c r="B266">
-        <v>0.53376818777097168</v>
+        <v>0.89645760752033254</v>
       </c>
       <c r="C266">
-        <v>0.36971741497693245</v>
+        <v>0.060690197713296576</v>
       </c>
       <c r="D266">
-        <v>0.52982931146522216</v>
+        <v>0.12226997273528001</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B267">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C267">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D267">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B268">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C268">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D268">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="269">
@@ -5145,13 +5139,13 @@
         <v>1</v>
       </c>
       <c r="B271">
-        <v>0.99108344380744495</v>
+        <v>0.99790450925200402</v>
       </c>
       <c r="C271">
         <v>0</v>
       </c>
       <c r="D271">
-        <v>0.0089165561925550439</v>
+        <v>0.0020954907479959007</v>
       </c>
     </row>
     <row r="272">
@@ -5159,21 +5153,21 @@
         <v>0</v>
       </c>
       <c r="B272">
-        <v>0.0031338115311794947</v>
+        <v>0.00074130034427279069</v>
       </c>
       <c r="C272"/>
       <c r="D272">
-        <v>0.0031338115311794947</v>
+        <v>0.00074130034427279069</v>
       </c>
     </row>
     <row r="273">
       <c r="A273"/>
       <c r="B273">
-        <v>316.25496107432599</v>
+        <v>1346.1541154832996</v>
       </c>
       <c r="C273"/>
       <c r="D273">
-        <v>2.8452751876878368</v>
+        <v>2.8267769793787956</v>
       </c>
     </row>
     <row r="274">
@@ -5183,53 +5177,53 @@
       </c>
       <c r="C274"/>
       <c r="D274">
-        <v>0.0045231475771137716</v>
+        <v>0.0047190409819492726</v>
       </c>
     </row>
     <row r="275">
       <c r="A275"/>
       <c r="B275">
-        <v>0.98493423147274006</v>
+        <v>0.99645126447330534</v>
       </c>
       <c r="C275"/>
       <c r="D275">
-        <v>0.0027673438578501037</v>
+        <v>0.00064224596929724647</v>
       </c>
     </row>
     <row r="276">
       <c r="A276"/>
       <c r="B276">
-        <v>0.99723265614214984</v>
+        <v>0.99935775403070271</v>
       </c>
       <c r="C276"/>
       <c r="D276">
-        <v>0.015065768527259984</v>
+        <v>0.0035487355266945551</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B277">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C277"/>
       <c r="D277">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B278">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C278">
         <v>1.9599639845400538</v>
       </c>
       <c r="D278">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="279">
@@ -5248,114 +5242,114 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>0.73232242768278999</v>
+        <v>0.95483830737679631</v>
       </c>
       <c r="B281">
-        <v>0.79331956863125175</v>
+        <v>0.9526214182417736</v>
       </c>
       <c r="C281">
-        <v>0.26767757231720996</v>
+        <v>0.045161692623203756</v>
       </c>
       <c r="D281">
-        <v>0.20668043136874825</v>
+        <v>0.047378581758226609</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>0.063636214097442495</v>
+        <v>0.014018220372084906</v>
       </c>
       <c r="B282">
-        <v>0.013236042470670855</v>
+        <v>0.0033233201957116099</v>
       </c>
       <c r="C282">
-        <v>0.063636214097442495</v>
+        <v>0.014018220372084906</v>
       </c>
       <c r="D282">
-        <v>0.013236042470670855</v>
+        <v>0.0033233201957116099</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>11.507950906089834</v>
+        <v>68.114088809604354</v>
       </c>
       <c r="B283">
-        <v>59.936311808392318</v>
+        <v>286.64749772562686</v>
       </c>
       <c r="C283">
-        <v>4.2063717352407322</v>
+        <v>3.2216423643286567</v>
       </c>
       <c r="D283">
-        <v>15.614971909218486</v>
+        <v>14.256399915772068</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>5.9247864001427302e-29</v>
+        <v>0</v>
       </c>
       <c r="B284">
         <v>0</v>
       </c>
       <c r="C284">
-        <v>2.8154415855582485e-05</v>
+        <v>0.0012820753275395358</v>
       </c>
       <c r="D284">
-        <v>1.3150930108826797e-49</v>
+        <v>2.6475996113588773e-45</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>0.60745448691207082</v>
+        <v>0.92735699603009225</v>
       </c>
       <c r="B285">
-        <v>0.76734760611419062</v>
+        <v>0.94610638319602636</v>
       </c>
       <c r="C285">
-        <v>0.14280963154649082</v>
+        <v>0.017680381276499662</v>
       </c>
       <c r="D285">
-        <v>0.18070846885168715</v>
+        <v>0.040863546712479423</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>0.85719036845350915</v>
+        <v>0.98231961872350038</v>
       </c>
       <c r="B286">
-        <v>0.81929153114831288</v>
+        <v>0.95913645328752084</v>
       </c>
       <c r="C286">
-        <v>0.39254551308792907</v>
+        <v>0.072643003969907846</v>
       </c>
       <c r="D286">
-        <v>0.23265239388580936</v>
+        <v>0.053893616803973796</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B287">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C287">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D287">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B288">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C288">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D288">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="289">
@@ -5374,114 +5368,162 @@
     </row>
     <row r="291">
       <c r="A291">
-        <v>0.68442638350072671</v>
+        <v>0.92148235265351153</v>
       </c>
       <c r="B291">
-        <v>0.79169627887308458</v>
+        <v>0.92262087866181641</v>
       </c>
       <c r="C291">
-        <v>0.3155736164992734</v>
+        <v>0.94910666115839215</v>
       </c>
       <c r="D291">
-        <v>0.20830372112691548</v>
+        <v>0.078517647346488473</v>
+      </c>
+      <c r="E291">
+        <v>0.077379121338183476</v>
+      </c>
+      <c r="F291">
+        <v>0.050893338841607814</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>0.015689511396096666</v>
+        <v>0.0069148082153488478</v>
       </c>
       <c r="B292">
-        <v>0.031600690797145344</v>
+        <v>0.01036266172873007</v>
       </c>
       <c r="C292">
-        <v>0.015689511396096666</v>
+        <v>0.0041664313819846045</v>
       </c>
       <c r="D292">
-        <v>0.031600690797145344</v>
+        <v>0.006914808215348847</v>
+      </c>
+      <c r="E292">
+        <v>0.010362661728730068</v>
+      </c>
+      <c r="F292">
+        <v>0.0041664313819846036</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>43.623180239443442</v>
+        <v>133.26217068581755</v>
       </c>
       <c r="B293">
-        <v>25.053132032942859</v>
+        <v>89.033194638003721</v>
       </c>
       <c r="C293">
-        <v>20.113667566332484</v>
+        <v>227.79846207530778</v>
       </c>
       <c r="D293">
-        <v>6.5917458091053076</v>
+        <v>11.355000008850906</v>
+      </c>
+      <c r="E293">
+        <v>7.4671086795830588</v>
+      </c>
+      <c r="F293">
+        <v>12.215091087703382</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>4.3618997256201824e-236</v>
+        <v>0</v>
       </c>
       <c r="B294">
-        <v>6.9914605619730171e-104</v>
+        <v>0</v>
       </c>
       <c r="C294">
-        <v>3.9416309977994673e-76</v>
+        <v>0</v>
       </c>
       <c r="D294">
-        <v>7.6738132702186196e-11</v>
+        <v>1.6384305445854881e-29</v>
+      </c>
+      <c r="E294">
+        <v>1.1602384771485577e-13</v>
+      </c>
+      <c r="F294">
+        <v>1.4132860232367742e-33</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>0.65363924582780564</v>
+        <v>0.90792621574551502</v>
       </c>
       <c r="B295">
-        <v>0.72967066774452061</v>
+        <v>0.90229964877168434</v>
       </c>
       <c r="C295">
-        <v>0.28478647882635233</v>
+        <v>0.94093753425662086</v>
       </c>
       <c r="D295">
-        <v>0.14627810999835145</v>
+        <v>0.064961510438491979</v>
+      </c>
+      <c r="E295">
+        <v>0.057057891448051401</v>
+      </c>
+      <c r="F295">
+        <v>0.042724211939836554</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>0.71521352117364778</v>
+        <v>0.93503848956150803</v>
       </c>
       <c r="B296">
-        <v>0.85372189000164855</v>
+        <v>0.94294210855194849</v>
       </c>
       <c r="C296">
-        <v>0.34636075417219447</v>
+        <v>0.95727578806016345</v>
       </c>
       <c r="D296">
-        <v>0.2703293322554795</v>
+        <v>0.092073784254484967</v>
+      </c>
+      <c r="E296">
+        <v>0.097700351228315552</v>
+      </c>
+      <c r="F296">
+        <v>0.059062465743379075</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>1027.6473825435005</v>
+        <v>4880.5925897557026</v>
       </c>
       <c r="B297">
-        <v>839.77292033286926</v>
+        <v>2280.327010998632</v>
       </c>
       <c r="C297">
-        <v>1027.6473825434998</v>
+        <v>3219.1839330987823</v>
       </c>
       <c r="D297">
-        <v>839.77292033286892</v>
+        <v>4880.592589755729</v>
+      </c>
+      <c r="E297">
+        <v>2280.3270109986565</v>
+      </c>
+      <c r="F297">
+        <v>3219.1839330988328</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>1.9622751082344403</v>
+        <v>1.9604501651840243</v>
       </c>
       <c r="B298">
-        <v>1.9627928872417919</v>
+        <v>1.9610048481841562</v>
       </c>
       <c r="C298">
-        <v>1.9622751082344403</v>
+        <v>1.9607011739336611</v>
       </c>
       <c r="D298">
-        <v>1.9627928872417919</v>
+        <v>1.9604501651840243</v>
+      </c>
+      <c r="E298">
+        <v>1.9610048481841562</v>
+      </c>
+      <c r="F298">
+        <v>1.9607011739336611</v>
       </c>
     </row>
     <row r="299">
@@ -5497,117 +5539,171 @@
       <c r="D299">
         <v>0</v>
       </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>0.54064745271932868</v>
+        <v>0.9224227074792033</v>
       </c>
       <c r="B301">
-        <v>0.38425121759299052</v>
+        <v>0.87962494790270962</v>
       </c>
       <c r="C301">
-        <v>0.45935254728067132</v>
+        <v>0.88884410194292707</v>
       </c>
       <c r="D301">
-        <v>0.61574878240700948</v>
+        <v>0.07757729252079662</v>
+      </c>
+      <c r="E301">
+        <v>0.12037505209729041</v>
+      </c>
+      <c r="F301">
+        <v>0.11115589805707286</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>0.016791488591726921</v>
+        <v>0.0074036997737543346</v>
       </c>
       <c r="B302">
-        <v>0.037785569039340876</v>
+        <v>0.012179684522219285</v>
       </c>
       <c r="C302">
-        <v>0.016791488591726925</v>
+        <v>0.0057841240748393525</v>
       </c>
       <c r="D302">
-        <v>0.037785569039340883</v>
+        <v>0.0074036997737543494</v>
+      </c>
+      <c r="E302">
+        <v>0.012179684522219285</v>
+      </c>
+      <c r="F302">
+        <v>0.0057841240748393594</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>32.197708366708049</v>
+        <v>124.58942632292245</v>
       </c>
       <c r="B303">
-        <v>10.169258459305535</v>
+        <v>72.220667645210185</v>
       </c>
       <c r="C303">
-        <v>27.356273076765323</v>
+        <v>153.66961193127824</v>
       </c>
       <c r="D303">
-        <v>16.295871626702656</v>
+        <v>10.478179139003347</v>
+      </c>
+      <c r="E303">
+        <v>9.8832651927635169</v>
+      </c>
+      <c r="F303">
+        <v>19.217412458455943</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>3.4783474962014509e-157</v>
+        <v>4.2746559678184651e-320</v>
       </c>
       <c r="B304">
-        <v>7.8816140787131721e-23</v>
+        <v>0</v>
       </c>
       <c r="C304">
-        <v>8.2818288213056995e-124</v>
+        <v>0</v>
       </c>
       <c r="D304">
-        <v>2.9203729563336414e-51</v>
+        <v>7.6606386111550102e-23</v>
+      </c>
+      <c r="E304">
+        <v>1.9231164829017487e-22</v>
+      </c>
+      <c r="F304">
+        <v>5.8838855652104744e-78</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>0.50769734938094702</v>
+        <v>0.90786730207832755</v>
       </c>
       <c r="B305">
-        <v>0.31007179622102105</v>
+        <v>0.85573640436742815</v>
       </c>
       <c r="C305">
-        <v>0.4264024439422896</v>
+        <v>0.8775031123470034</v>
       </c>
       <c r="D305">
-        <v>0.54156936103503994</v>
+        <v>0.063021887119920808</v>
+      </c>
+      <c r="E305">
+        <v>0.09648650856200891</v>
+      </c>
+      <c r="F305">
+        <v>0.099814908461149238</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>0.57359755605771034</v>
+        <v>0.93697811288007904</v>
       </c>
       <c r="B306">
-        <v>0.45843063896496</v>
+        <v>0.90351349143799109</v>
       </c>
       <c r="C306">
-        <v>0.49230265061905304</v>
+        <v>0.90018509153885073</v>
       </c>
       <c r="D306">
-        <v>0.68992820377897901</v>
+        <v>0.092132697921672432</v>
+      </c>
+      <c r="E306">
+        <v>0.14426359563257191</v>
+      </c>
+      <c r="F306">
+        <v>0.12249688765299649</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>1012.4488701228892</v>
+        <v>396.58266250321395</v>
       </c>
       <c r="B307">
-        <v>741.5866147543959</v>
+        <v>1720.987565748193</v>
       </c>
       <c r="C307">
-        <v>1012.4488701228876</v>
+        <v>3181.3470190283347</v>
       </c>
       <c r="D307">
-        <v>741.58661475439351</v>
+        <v>396.58266250319684</v>
+      </c>
+      <c r="E307">
+        <v>1720.9875657482021</v>
+      </c>
+      <c r="F307">
+        <v>3181.3470190281446</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>1.9623098427745143</v>
+        <v>1.9659637540238706</v>
       </c>
       <c r="B308">
-        <v>1.9631680363139887</v>
+        <v>1.9613433740177626</v>
       </c>
       <c r="C308">
-        <v>1.9623098427745143</v>
+        <v>1.9607099448741676</v>
       </c>
       <c r="D308">
-        <v>1.9631680363139887</v>
+        <v>1.9659637540238744</v>
+      </c>
+      <c r="E308">
+        <v>1.9613433740177626</v>
+      </c>
+      <c r="F308">
+        <v>1.9607099448741676</v>
       </c>
     </row>
     <row r="309">
@@ -5623,117 +5719,151 @@
       <c r="D309">
         <v>0</v>
       </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>0.99216470830373316</v>
+        <v>1</v>
       </c>
       <c r="B311">
-        <v>0.99428462315514987</v>
+        <v>0.99853138806664388</v>
       </c>
       <c r="C311">
-        <v>0.0078352916962667919</v>
+        <v>0.99754066887894211</v>
       </c>
       <c r="D311">
-        <v>0.0057153768448502326</v>
+        <v>0</v>
+      </c>
+      <c r="E311">
+        <v>0.0014686119333561193</v>
+      </c>
+      <c r="F311">
+        <v>0.0024593311210578039</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>0.002953988207667508</v>
+        <v>0</v>
       </c>
       <c r="B312">
-        <v>0.0056816429206204633</v>
+        <v>0.0014645842503477704</v>
       </c>
       <c r="C312">
-        <v>0.002953988207667508</v>
-      </c>
-      <c r="D312">
-        <v>0.0056816429206204633</v>
+        <v>0.00092730006719776606</v>
+      </c>
+      <c r="D312"/>
+      <c r="E312">
+        <v>0.0014645842503477702</v>
+      </c>
+      <c r="F312">
+        <v>0.00092730006719776606</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313">
-        <v>335.87294144520439</v>
-      </c>
+      <c r="A313"/>
       <c r="B313">
-        <v>174.99949170451723</v>
+        <v>681.78487364556815</v>
       </c>
       <c r="C313">
-        <v>2.6524451505693718</v>
-      </c>
-      <c r="D313">
-        <v>1.0059373538078815</v>
+        <v>1075.7474351246819</v>
+      </c>
+      <c r="D313"/>
+      <c r="E313">
+        <v>1.0027500521102781</v>
+      </c>
+      <c r="F313">
+        <v>2.6521416400731268</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314">
-        <v>0</v>
-      </c>
+      <c r="A314"/>
       <c r="B314">
         <v>0</v>
       </c>
       <c r="C314">
-        <v>0.0081110653545752275</v>
-      </c>
-      <c r="D314">
-        <v>0.31467657438847207</v>
+        <v>0</v>
+      </c>
+      <c r="D314"/>
+      <c r="E314">
+        <v>0.31602601945263969</v>
+      </c>
+      <c r="F314">
+        <v>0.0080214728320025987</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315">
-        <v>0.986368347082488</v>
-      </c>
+      <c r="A315"/>
       <c r="B315">
-        <v>0.98313600588567684</v>
+        <v>0.99566021764547818</v>
       </c>
       <c r="C315">
-        <v>0.0020389304750215876</v>
-      </c>
-      <c r="D315">
-        <v>-0.0054332404246227543</v>
+        <v>0.9957227903111554</v>
+      </c>
+      <c r="D315"/>
+      <c r="E315">
+        <v>-0.0014025584878095605</v>
+      </c>
+      <c r="F315">
+        <v>0.00064145255327106463</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316">
-        <v>0.99796106952497832</v>
-      </c>
+      <c r="A316"/>
       <c r="B316">
-        <v>1.0054332404246229</v>
+        <v>1.0014025584878095</v>
       </c>
       <c r="C316">
-        <v>0.013631652917511996</v>
-      </c>
-      <c r="D316">
-        <v>0.016863994114323218</v>
+        <v>0.99935854744672881</v>
+      </c>
+      <c r="D316"/>
+      <c r="E316">
+        <v>0.0043397823545217994</v>
+      </c>
+      <c r="F316">
+        <v>0.0042772096888445427</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>1054.858481921158</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B317">
-        <v>1054.0435556409484</v>
+        <v>5446.6180746910331</v>
       </c>
       <c r="C317">
-        <v>1054.858481921158</v>
-      </c>
-      <c r="D317">
-        <v>1054.0435556409484</v>
+        <v>5448.5060324770848</v>
+      </c>
+      <c r="D317"/>
+      <c r="E317">
+        <v>5446.6180746910359</v>
+      </c>
+      <c r="F317">
+        <v>5448.5060324770848</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>1.962215423270784</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B318">
-        <v>1.962217165920646</v>
+        <v>1.9603996290987775</v>
       </c>
       <c r="C318">
-        <v>1.962215423270784</v>
+        <v>1.9603994781109391</v>
       </c>
       <c r="D318">
-        <v>1.962217165920646</v>
+        <v>1.9599639845400538</v>
+      </c>
+      <c r="E318">
+        <v>1.9603996290987775</v>
+      </c>
+      <c r="F318">
+        <v>1.9603994781109391</v>
       </c>
     </row>
     <row r="319">
@@ -5749,117 +5879,171 @@
       <c r="D319">
         <v>0</v>
       </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>0.78276145547621157</v>
+        <v>0.94861594061484877</v>
       </c>
       <c r="B321">
-        <v>0.82976788037877525</v>
+        <v>0.9558199409555701</v>
       </c>
       <c r="C321">
-        <v>0.21723854452378849</v>
+        <v>0.95995546243929231</v>
       </c>
       <c r="D321">
-        <v>0.17023211962122484</v>
+        <v>0.051384059385151226</v>
+      </c>
+      <c r="E321">
+        <v>0.044180059044429836</v>
+      </c>
+      <c r="F321">
+        <v>0.040044537560707749</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>0.014000756586353321</v>
+        <v>0.0057858719836881064</v>
       </c>
       <c r="B322">
-        <v>0.029966676324549843</v>
+        <v>0.0081554381486943234</v>
       </c>
       <c r="C322">
-        <v>0.014000756586353323</v>
+        <v>0.0036809518915995793</v>
       </c>
       <c r="D322">
-        <v>0.02996667632454984</v>
+        <v>0.005785871983688109</v>
+      </c>
+      <c r="E322">
+        <v>0.0081554381486943165</v>
+      </c>
+      <c r="F322">
+        <v>0.0036809518915995785</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>55.908511132832423</v>
+        <v>163.95384192551208</v>
       </c>
       <c r="B323">
-        <v>27.689686750445453</v>
+        <v>117.20031757074827</v>
       </c>
       <c r="C323">
-        <v>15.516200369880943</v>
+        <v>260.7900050609295</v>
       </c>
       <c r="D323">
-        <v>5.6807140630996242</v>
+        <v>8.8809533861129957</v>
+      </c>
+      <c r="E323">
+        <v>5.4172514387228912</v>
+      </c>
+      <c r="F323">
+        <v>10.878853823679334</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>2.1406992124444899e-309</v>
+        <v>0</v>
       </c>
       <c r="B324">
-        <v>3.9428271074451578e-103</v>
+        <v>0</v>
       </c>
       <c r="C324">
-        <v>8.5926746011078388e-49</v>
+        <v>0</v>
       </c>
       <c r="D324">
-        <v>2.2747802846989172e-08</v>
+        <v>1.1830396317288671e-18</v>
+      </c>
+      <c r="E324">
+        <v>7.1403749053329457e-08</v>
+      </c>
+      <c r="F324">
+        <v>2.8255870529565215e-27</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>0.75528707921787386</v>
+        <v>0.93727075501049062</v>
       </c>
       <c r="B325">
-        <v>0.77089231115806256</v>
+        <v>0.93982144725864036</v>
       </c>
       <c r="C325">
-        <v>0.18976416826545078</v>
+        <v>0.95273927496129285</v>
       </c>
       <c r="D325">
-        <v>0.11135655040051212</v>
+        <v>0.040038873780793127</v>
+      </c>
+      <c r="E325">
+        <v>0.028181565347500163</v>
+      </c>
+      <c r="F325">
+        <v>0.032828350082708298</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>0.81023583173454927</v>
+        <v>0.95996112621920693</v>
       </c>
       <c r="B326">
-        <v>0.88864344959948793</v>
+        <v>0.97181843465249984</v>
       </c>
       <c r="C326">
-        <v>0.2447129207821262</v>
+        <v>0.96717164991729176</v>
       </c>
       <c r="D326">
-        <v>0.22910768884193755</v>
+        <v>0.062729244989509325</v>
+      </c>
+      <c r="E326">
+        <v>0.060178552741359512</v>
+      </c>
+      <c r="F326">
+        <v>0.047260725038707201</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>995.68004689465965</v>
+        <v>2700.4886234297696</v>
       </c>
       <c r="B327">
-        <v>501.94733918640878</v>
+        <v>1370.5287857848864</v>
       </c>
       <c r="C327">
-        <v>995.6800468946592</v>
+        <v>5279.5530693149849</v>
       </c>
       <c r="D327">
-        <v>501.94733918640998</v>
+        <v>2700.4886234297237</v>
+      </c>
+      <c r="E327">
+        <v>1370.5287857849291</v>
+      </c>
+      <c r="F327">
+        <v>5279.5530693150076</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>1.9623493979687678</v>
+        <v>1.9608428317016273</v>
       </c>
       <c r="B328">
-        <v>1.9647013430208013</v>
+        <v>1.9616964049308654</v>
       </c>
       <c r="C328">
-        <v>1.9623493979687678</v>
+        <v>1.9604134176455152</v>
       </c>
       <c r="D328">
-        <v>1.9647013430208013</v>
+        <v>1.9608428317016273</v>
+      </c>
+      <c r="E328">
+        <v>1.9616964049308654</v>
+      </c>
+      <c r="F328">
+        <v>1.9604134176455152</v>
       </c>
     </row>
     <row r="329">
@@ -5875,165 +6059,171 @@
       <c r="D329">
         <v>0</v>
       </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>0.68240512089478589</v>
+        <v>0.92589668762701538</v>
       </c>
       <c r="B331">
-        <v>0.70442225039111839</v>
+        <v>0.92599146502759067</v>
       </c>
       <c r="C331">
-        <v>0.72156312488209773</v>
+        <v>0.94832129243825203</v>
       </c>
       <c r="D331">
-        <v>0.31759487910521411</v>
+        <v>0.074103312372984578</v>
       </c>
       <c r="E331">
-        <v>0.29557774960888172</v>
+        <v>0.074008534972409515</v>
       </c>
       <c r="F331">
-        <v>0.27843687511790227</v>
+        <v>0.051678707561747861</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>0.037466414902440556</v>
+        <v>0.0090924245071435858</v>
       </c>
       <c r="B332">
-        <v>0.023808595822714589</v>
+        <v>0.0070656608601305454</v>
       </c>
       <c r="C332">
-        <v>0.020783231795831934</v>
+        <v>0.0043758175842808465</v>
       </c>
       <c r="D332">
-        <v>0.037466414902440556</v>
+        <v>0.0090924245071435858</v>
       </c>
       <c r="E332">
-        <v>0.023808595822714589</v>
+        <v>0.0070656608601305454</v>
       </c>
       <c r="F332">
-        <v>0.020783231795831934</v>
+        <v>0.0043758175842808465</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>18.213782201251771</v>
+        <v>101.8316607302675</v>
       </c>
       <c r="B333">
-        <v>29.586887678569621</v>
+        <v>131.0551812998398</v>
       </c>
       <c r="C333">
-        <v>34.7185236622731</v>
+        <v>216.71865295410984</v>
       </c>
       <c r="D333">
-        <v>8.4767886100713099</v>
+        <v>8.1500057894090094</v>
       </c>
       <c r="E333">
-        <v>12.414749353965924</v>
+        <v>10.474396724872262</v>
       </c>
       <c r="F333">
-        <v>13.397188553405954</v>
+        <v>11.810068990853766</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>1.154646545741561e-64</v>
+        <v>0</v>
       </c>
       <c r="B334">
-        <v>1.4121439158965499e-140</v>
+        <v>0</v>
       </c>
       <c r="C334">
-        <v>9.1510478662930888e-177</v>
+        <v>0</v>
       </c>
       <c r="D334">
-        <v>7.7119791812858391e-17</v>
+        <v>4.4751301386887217e-16</v>
       </c>
       <c r="E334">
-        <v>3.9505134903024317e-33</v>
+        <v>1.9726327995358376e-25</v>
       </c>
       <c r="F334">
-        <v>6.5089326596198484e-38</v>
+        <v>8.4339824405521999e-32</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>0.60888795549953723</v>
+        <v>0.90807190372828339</v>
       </c>
       <c r="B335">
-        <v>0.65770466394776972</v>
+        <v>0.91213994744450755</v>
       </c>
       <c r="C335">
-        <v>0.68078195344200787</v>
+        <v>0.93974294210289344</v>
       </c>
       <c r="D335">
-        <v>0.24407771370996542</v>
+        <v>0.056278528474252618</v>
       </c>
       <c r="E335">
-        <v>0.248860163165533</v>
+        <v>0.060157017389326356</v>
       </c>
       <c r="F335">
-        <v>0.23765570367781236</v>
+        <v>0.043100357226389316</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>0.75592228629003455</v>
+        <v>0.94372147152574737</v>
       </c>
       <c r="B336">
-        <v>0.75113983683446706</v>
+        <v>0.93984298261067378</v>
       </c>
       <c r="C336">
-        <v>0.76234429632218759</v>
+        <v>0.95689964277361061</v>
       </c>
       <c r="D336">
-        <v>0.39111204450046277</v>
+        <v>0.091928096271716539</v>
       </c>
       <c r="E336">
-        <v>0.34229533605223045</v>
+        <v>0.087860052555492674</v>
       </c>
       <c r="F336">
-        <v>0.31921804655799219</v>
+        <v>0.060257057897106406</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B337">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C337">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D337">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="E337">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="F337">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B338">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C338">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D338">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="E338">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="F338">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="339">
@@ -6058,162 +6248,162 @@
     </row>
     <row r="341">
       <c r="A341">
-        <v>0.56380143282709216</v>
+        <v>0.90421470729915954</v>
       </c>
       <c r="B341">
-        <v>0.48190356200403367</v>
+        <v>0.87270614874468211</v>
       </c>
       <c r="C341">
-        <v>0.51214105043073632</v>
+        <v>0.90744892346088779</v>
       </c>
       <c r="D341">
-        <v>0.43619856717290784</v>
+        <v>0.095785292700840463</v>
       </c>
       <c r="E341">
-        <v>0.51809643799596627</v>
+        <v>0.12729385125531784</v>
       </c>
       <c r="F341">
-        <v>0.48785894956926368</v>
+        <v>0.09255107653911207</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>0.042374657925473028</v>
+        <v>0.011031793265700762</v>
       </c>
       <c r="B342">
-        <v>0.02592713181870011</v>
+        <v>0.0086503779034722318</v>
       </c>
       <c r="C342">
-        <v>0.022959167252586451</v>
+        <v>0.0055924725204448827</v>
       </c>
       <c r="D342">
-        <v>0.042374657925473028</v>
+        <v>0.011031793265700762</v>
       </c>
       <c r="E342">
-        <v>0.02592713181870011</v>
+        <v>0.0086503779034722318</v>
       </c>
       <c r="F342">
-        <v>0.022959167252586451</v>
+        <v>0.0055924725204448827</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>13.305155968897381</v>
+        <v>81.964435474917508</v>
       </c>
       <c r="B343">
-        <v>18.586844290136931</v>
+        <v>100.88647669304493</v>
       </c>
       <c r="C343">
-        <v>22.306603928460923</v>
+        <v>162.26256278299959</v>
       </c>
       <c r="D343">
-        <v>10.293854594415315</v>
+        <v>8.6826584213329152</v>
       </c>
       <c r="E343">
-        <v>19.982790291608186</v>
+        <v>14.715409277578789</v>
       </c>
       <c r="F343">
-        <v>21.248982778950932</v>
+        <v>16.549223299849064</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>1.8730209978420981e-37</v>
+        <v>0</v>
       </c>
       <c r="B344">
-        <v>6.2944988081500471e-67</v>
+        <v>0</v>
       </c>
       <c r="C344">
-        <v>1.319396678860234e-90</v>
+        <v>0</v>
       </c>
       <c r="D344">
-        <v>9.5483432695216593e-24</v>
+        <v>5.0404079005924631e-18</v>
       </c>
       <c r="E344">
-        <v>1.3600561009668629e-75</v>
+        <v>4.2573418265127157e-48</v>
       </c>
       <c r="F344">
-        <v>1.0835737607627448e-83</v>
+        <v>4.6445235178083247e-60</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>0.48065323881424149</v>
+        <v>0.88258798597503851</v>
       </c>
       <c r="B345">
-        <v>0.43102895222076271</v>
+        <v>0.85574795275959403</v>
       </c>
       <c r="C345">
-        <v>0.4670902255615646</v>
+        <v>0.89648544347178161</v>
       </c>
       <c r="D345">
-        <v>0.35305037316005716</v>
+        <v>0.074158571376719454</v>
       </c>
       <c r="E345">
-        <v>0.46722182821269531</v>
+        <v>0.11033565527022979</v>
       </c>
       <c r="F345">
-        <v>0.44280812470009195</v>
+        <v>0.081587596550005942</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>0.64694962683994284</v>
+        <v>0.92584142862328056</v>
       </c>
       <c r="B346">
-        <v>0.53277817178730458</v>
+        <v>0.88966434472977018</v>
       </c>
       <c r="C346">
-        <v>0.5571918752999081</v>
+        <v>0.91841240344999397</v>
       </c>
       <c r="D346">
-        <v>0.51934676118575851</v>
+        <v>0.11741201402496147</v>
       </c>
       <c r="E346">
-        <v>0.56897104777923724</v>
+        <v>0.14425204724040588</v>
       </c>
       <c r="F346">
-        <v>0.53290977443843546</v>
+        <v>0.1035145565282182</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B347">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C347">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D347">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="E347">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="F347">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B348">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C348">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D348">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="E348">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="F348">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="349">
@@ -6241,19 +6431,19 @@
         <v>1</v>
       </c>
       <c r="B351">
-        <v>0.99478749505211772</v>
+        <v>0.99874367698791977</v>
       </c>
       <c r="C351">
-        <v>0.98647951015531654</v>
+        <v>0.99779015609135979</v>
       </c>
       <c r="D351">
         <v>0</v>
       </c>
       <c r="E351">
-        <v>0.0052125049478823071</v>
+        <v>0.0012563230120801806</v>
       </c>
       <c r="F351">
-        <v>0.013520489844683395</v>
+        <v>0.0022098439086402689</v>
       </c>
     </row>
     <row r="352">
@@ -6261,33 +6451,33 @@
         <v>0</v>
       </c>
       <c r="B352">
-        <v>0.0037202606120619835</v>
+        <v>0.00090758011423443491</v>
       </c>
       <c r="C352">
-        <v>0.0054602395721978659</v>
+        <v>0.0009072208358457003</v>
       </c>
       <c r="D352"/>
       <c r="E352">
-        <v>0.0037202606120619835</v>
+        <v>0.00090758011423443491</v>
       </c>
       <c r="F352">
-        <v>0.0054602395721978659</v>
+        <v>0.0009072208358457003</v>
       </c>
     </row>
     <row r="353">
       <c r="A353"/>
       <c r="B353">
-        <v>267.39726024213905</v>
+        <v>1100.4468490700499</v>
       </c>
       <c r="C353">
-        <v>180.66597575282526</v>
+        <v>1099.8316139435135</v>
       </c>
       <c r="D353"/>
       <c r="E353">
-        <v>1.4011128497240508</v>
+        <v>1.3842557724393494</v>
       </c>
       <c r="F353">
-        <v>2.476171542641874</v>
+        <v>2.4358390166163666</v>
       </c>
     </row>
     <row r="354">
@@ -6300,80 +6490,80 @@
       </c>
       <c r="D354"/>
       <c r="E354">
-        <v>0.16147440779656802</v>
+        <v>0.166336838109227</v>
       </c>
       <c r="F354">
-        <v>0.013435968961662737</v>
+        <v>0.014889130876820754</v>
       </c>
     </row>
     <row r="355">
       <c r="A355"/>
       <c r="B355">
-        <v>0.98748754347034595</v>
+        <v>0.99696445744154849</v>
       </c>
       <c r="C355">
-        <v>0.97576534556892047</v>
+        <v>0.99601164087414007</v>
       </c>
       <c r="D355"/>
       <c r="E355">
-        <v>-0.0020874466338895066</v>
+        <v>-0.00052289653429111603</v>
       </c>
       <c r="F355">
-        <v>0.0028063252582872737</v>
+        <v>0.00043132869142052557</v>
       </c>
     </row>
     <row r="356">
       <c r="A356"/>
       <c r="B356">
-        <v>1.0020874466338896</v>
+        <v>1.0005228965342912</v>
       </c>
       <c r="C356">
-        <v>0.99719367474171261</v>
+        <v>0.99956867130857951</v>
       </c>
       <c r="D356"/>
       <c r="E356">
-        <v>0.012512456529654121</v>
+        <v>0.0030355425584514774</v>
       </c>
       <c r="F356">
-        <v>0.024234654431079514</v>
+        <v>0.003988359125860012</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B357">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C357">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D357"/>
       <c r="E357">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="F357">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B358">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C358">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D358">
         <v>1.9599639845400538</v>
       </c>
       <c r="E358">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="F358">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="359">
@@ -6398,162 +6588,162 @@
     </row>
     <row r="361">
       <c r="A361">
-        <v>0.75379344627812195</v>
+        <v>0.9449040620071345</v>
       </c>
       <c r="B361">
-        <v>0.81888669255273039</v>
+        <v>0.95512098266313816</v>
       </c>
       <c r="C361">
-        <v>0.77981631453184941</v>
+        <v>0.95998824077639422</v>
       </c>
       <c r="D361">
-        <v>0.24620655372187805</v>
+        <v>0.05509593799286551</v>
       </c>
       <c r="E361">
-        <v>0.18111330744726972</v>
+        <v>0.044879017336861865</v>
       </c>
       <c r="F361">
-        <v>0.22018368546815065</v>
+        <v>0.040011759223605822</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>0.037001607338392632</v>
+        <v>0.0084588404088532312</v>
       </c>
       <c r="B362">
-        <v>0.020061858389622041</v>
+        <v>0.0055062797961033015</v>
       </c>
       <c r="C362">
-        <v>0.019177079920542694</v>
+        <v>0.0038796014665794121</v>
       </c>
       <c r="D362">
-        <v>0.037001607338392632</v>
+        <v>0.0084588404088532312</v>
       </c>
       <c r="E362">
-        <v>0.020061858389622041</v>
+        <v>0.0055062797961033015</v>
       </c>
       <c r="F362">
-        <v>0.019177079920542694</v>
+        <v>0.0038796014665794121</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>20.371910857396475</v>
+        <v>111.70609874826042</v>
       </c>
       <c r="B363">
-        <v>40.818087569411759</v>
+        <v>173.46030678264128</v>
       </c>
       <c r="C363">
-        <v>40.663975837974256</v>
+        <v>247.44506595488062</v>
       </c>
       <c r="D363">
-        <v>6.6539421239254031</v>
+        <v>6.5134149989637748</v>
       </c>
       <c r="E363">
-        <v>9.0277432892737028</v>
+        <v>8.1505152296514183</v>
       </c>
       <c r="F363">
-        <v>11.481606500074474</v>
+        <v>10.313368413813805</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>4.6475068410150823e-78</v>
+        <v>0</v>
       </c>
       <c r="B364">
-        <v>2.7079258721696806e-219</v>
+        <v>0</v>
       </c>
       <c r="C364">
-        <v>3.1111730950815157e-218</v>
+        <v>0</v>
       </c>
       <c r="D364">
-        <v>4.5758807355168144e-11</v>
+        <v>8.0057655938010927e-11</v>
       </c>
       <c r="E364">
-        <v>8.1285047225280096e-19</v>
+        <v>4.4565430697046604e-16</v>
       </c>
       <c r="F364">
-        <v>7.7699711017582426e-29</v>
+        <v>1.0334169879370453e-24</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>0.68118833330774642</v>
+        <v>0.92832135601895605</v>
       </c>
       <c r="B365">
-        <v>0.77952101090941339</v>
+        <v>0.94432647484243715</v>
       </c>
       <c r="C365">
-        <v>0.74218675856852712</v>
+        <v>0.95238267223956985</v>
       </c>
       <c r="D365">
-        <v>0.17360144075150249</v>
+        <v>0.038513232004687065</v>
       </c>
       <c r="E365">
-        <v>0.14174762580395275</v>
+        <v>0.034084509516160821</v>
       </c>
       <c r="F365">
-        <v>0.18255412950482833</v>
+        <v>0.032406190686781501</v>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>0.82639855924849748</v>
+        <v>0.96148676799531296</v>
       </c>
       <c r="B366">
-        <v>0.85825237419604739</v>
+        <v>0.96591549048383918</v>
       </c>
       <c r="C366">
-        <v>0.8174458704951717</v>
+        <v>0.96759380931321859</v>
       </c>
       <c r="D366">
-        <v>0.31881166669225358</v>
+        <v>0.071678643981043955</v>
       </c>
       <c r="E366">
-        <v>0.22047898909058669</v>
+        <v>0.055673525157562909</v>
       </c>
       <c r="F366">
-        <v>0.25781324143147294</v>
+        <v>0.047617327760430143</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B367">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C367">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D367">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="E367">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="F367">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B368">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C368">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D368">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="E368">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="F368">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="369">
@@ -6578,162 +6768,162 @@
     </row>
     <row r="371">
       <c r="A371">
-        <v>0.77523631746031751</v>
+        <v>0.95808147080232953</v>
       </c>
       <c r="B371">
-        <v>0.74360975414416086</v>
+        <v>0.94858443522528191</v>
       </c>
       <c r="C371">
-        <v>0.67494854130805171</v>
+        <v>0.92527008700975277</v>
       </c>
       <c r="D371">
-        <v>0.22476368253968254</v>
+        <v>0.041918529197670654</v>
       </c>
       <c r="E371">
-        <v>0.25639024585583908</v>
+        <v>0.051415564774718189</v>
       </c>
       <c r="F371">
-        <v>0.32505145869194835</v>
+        <v>0.074729912990247199</v>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>0.047085527419384515</v>
+        <v>0.010924966705590154</v>
       </c>
       <c r="B372">
-        <v>0.025814226949081334</v>
+        <v>0.005825480248821506</v>
       </c>
       <c r="C372">
-        <v>0.017912506431711616</v>
+        <v>0.0047753400268996425</v>
       </c>
       <c r="D372">
-        <v>0.047085527419384515</v>
+        <v>0.010924966705590154</v>
       </c>
       <c r="E372">
-        <v>0.025814226949081334</v>
+        <v>0.005825480248821506</v>
       </c>
       <c r="F372">
-        <v>0.017912506431711616</v>
+        <v>0.0047753400268996425</v>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>16.464428879714802</v>
+        <v>87.696511725943523</v>
       </c>
       <c r="B373">
-        <v>28.806198830239392</v>
+        <v>162.83368833276543</v>
       </c>
       <c r="C373">
-        <v>37.680295824661847</v>
+        <v>193.76004259333931</v>
       </c>
       <c r="D373">
-        <v>4.7735194837628638</v>
+        <v>3.8369480042645372</v>
       </c>
       <c r="E373">
-        <v>9.9321295331279877</v>
+        <v>8.825978731130288</v>
       </c>
       <c r="F373">
-        <v>18.146620626831414</v>
+        <v>15.649129186464465</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>2.2076106053718531e-54</v>
+        <v>0</v>
       </c>
       <c r="B374">
-        <v>4.2781724651645041e-135</v>
+        <v>0</v>
       </c>
       <c r="C374">
-        <v>1.5242288557381125e-197</v>
+        <v>0</v>
       </c>
       <c r="D374">
-        <v>2.0653904816190217e-06</v>
+        <v>0.00012598169247649111</v>
       </c>
       <c r="E374">
-        <v>2.7673792578464883e-22</v>
+        <v>1.4397582408351577e-18</v>
       </c>
       <c r="F374">
-        <v>2.9338665468356977e-64</v>
+        <v>4.9803011318310356e-54</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>0.68284438415078907</v>
+        <v>0.93666417220667009</v>
       </c>
       <c r="B375">
-        <v>0.69295668800191634</v>
+        <v>0.93716416701629179</v>
       </c>
       <c r="C375">
-        <v>0.63980035055073914</v>
+        <v>0.915908513102202</v>
       </c>
       <c r="D375">
-        <v>0.13237174923015416</v>
+        <v>0.020501230602011176</v>
       </c>
       <c r="E375">
-        <v>0.20573717971359454</v>
+        <v>0.039995296565728061</v>
       </c>
       <c r="F375">
-        <v>0.28990326793463578</v>
+        <v>0.065368339082696375</v>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>0.86762825076984595</v>
+        <v>0.97949876939798897</v>
       </c>
       <c r="B376">
-        <v>0.79426282028640538</v>
+        <v>0.96000470343427202</v>
       </c>
       <c r="C376">
-        <v>0.71009673206536428</v>
+        <v>0.93463166091730354</v>
       </c>
       <c r="D376">
-        <v>0.31715561584921093</v>
+        <v>0.063335827793330135</v>
       </c>
       <c r="E376">
-        <v>0.30704331199808366</v>
+        <v>0.062835832983708317</v>
       </c>
       <c r="F376">
-        <v>0.36019964944926092</v>
+        <v>0.084091486897798023</v>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B377">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C377">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D377">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="E377">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="F377">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B378">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C378">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D378">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="E378">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="F378">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="379">
@@ -6758,162 +6948,162 @@
     </row>
     <row r="381">
       <c r="A381">
-        <v>0.37371572486772486</v>
+        <v>0.87609332942413454</v>
       </c>
       <c r="B381">
-        <v>0.49107992549823065</v>
+        <v>0.89839289803091904</v>
       </c>
       <c r="C381">
-        <v>0.54015540135372841</v>
+        <v>0.89497751754261079</v>
       </c>
       <c r="D381">
-        <v>0.62628427513227514</v>
+        <v>0.12390667057586542</v>
       </c>
       <c r="E381">
-        <v>0.50892007450176946</v>
+        <v>0.10160710196908092</v>
       </c>
       <c r="F381">
-        <v>0.45984459864627159</v>
+        <v>0.10502248245738925</v>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>0.052366255788219886</v>
+        <v>0.016832463844903261</v>
       </c>
       <c r="B382">
-        <v>0.029667905452541346</v>
+        <v>0.0078055523764866347</v>
       </c>
       <c r="C382">
-        <v>0.018887704104656712</v>
+        <v>0.005422937553196088</v>
       </c>
       <c r="D382">
-        <v>0.052366255788219886</v>
+        <v>0.016832463844903261</v>
       </c>
       <c r="E382">
-        <v>0.029667905452541346</v>
+        <v>0.0078055523764866347</v>
       </c>
       <c r="F382">
-        <v>0.018887704104656712</v>
+        <v>0.005422937553196088</v>
       </c>
     </row>
     <row r="383">
       <c r="A383">
-        <v>7.1365752476004696</v>
+        <v>52.047836697977452</v>
       </c>
       <c r="B383">
-        <v>16.552564733084818</v>
+        <v>115.09664591287972</v>
       </c>
       <c r="C383">
-        <v>28.598256217946286</v>
+        <v>165.03555660808644</v>
       </c>
       <c r="D383">
-        <v>11.95969170805528</v>
+        <v>7.3611725364485725</v>
       </c>
       <c r="E383">
-        <v>17.153892960723841</v>
+        <v>13.017285269286143</v>
       </c>
       <c r="F383">
-        <v>24.346241136470269</v>
+        <v>19.366345532688776</v>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>1.7768463168285085e-12</v>
+        <v>0</v>
       </c>
       <c r="B384">
-        <v>6.9171084749092798e-55</v>
+        <v>0</v>
       </c>
       <c r="C384">
-        <v>1.2260664897344469e-133</v>
+        <v>0</v>
       </c>
       <c r="D384">
-        <v>5.2709935143321597e-31</v>
+        <v>2.0943176291204308e-13</v>
       </c>
       <c r="E384">
-        <v>2.2924040494167191e-58</v>
+        <v>3.6017826940732351e-38</v>
       </c>
       <c r="F384">
-        <v>2.9400551060387717e-104</v>
+        <v>7.3529909205103553e-81</v>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>0.27096186656724242</v>
+        <v>0.84309497675341472</v>
       </c>
       <c r="B385">
-        <v>0.43286511317192489</v>
+        <v>0.88309089753459413</v>
       </c>
       <c r="C385">
-        <v>0.50309366298846747</v>
+        <v>0.88434639380811131</v>
       </c>
       <c r="D385">
-        <v>0.52353041683179269</v>
+        <v>0.090908317905145641</v>
       </c>
       <c r="E385">
-        <v>0.45070526217546369</v>
+        <v>0.086305101472755996</v>
       </c>
       <c r="F385">
-        <v>0.42278286028101064</v>
+        <v>0.094391358722889812</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>0.47646958316820731</v>
+        <v>0.90909168209485436</v>
       </c>
       <c r="B386">
-        <v>0.54929473782453642</v>
+        <v>0.91369489852724395</v>
       </c>
       <c r="C386">
-        <v>0.57721713971898936</v>
+        <v>0.90560864127711027</v>
       </c>
       <c r="D386">
-        <v>0.72903813343275758</v>
+        <v>0.1569050232465852</v>
       </c>
       <c r="E386">
-        <v>0.56713488682807522</v>
+        <v>0.11690910246540584</v>
       </c>
       <c r="F386">
-        <v>0.49690633701153253</v>
+        <v>0.11565360619188869</v>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B387">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C387">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D387">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="E387">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="F387">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B388">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C388">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D388">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="E388">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="F388">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="389">
@@ -6938,62 +7128,62 @@
     </row>
     <row r="391">
       <c r="A391">
-        <v>0.98971904761904761</v>
+        <v>0.99865373665480417</v>
       </c>
       <c r="B391">
-        <v>0.9933892493946731</v>
+        <v>0.99860386405959023</v>
       </c>
       <c r="C391">
-        <v>0.99262081599112073</v>
+        <v>0.99826332019690844</v>
       </c>
       <c r="D391">
-        <v>0.010280952380952382</v>
+        <v>0.0013462633451957295</v>
       </c>
       <c r="E391">
-        <v>0.0066107506053268757</v>
+        <v>0.0013961359404096835</v>
       </c>
       <c r="F391">
-        <v>0.007379184008879212</v>
+        <v>0.0017366798030913802</v>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>0.010157822760991165</v>
+        <v>0.0013438657238000827</v>
       </c>
       <c r="B392">
-        <v>0.0046625319996035182</v>
+        <v>0.00098635130560577843</v>
       </c>
       <c r="C392">
-        <v>0.0032808870626574696</v>
+        <v>0.00077592263601058606</v>
       </c>
       <c r="D392">
-        <v>0.010157822760991165</v>
+        <v>0.0013438657238000827</v>
       </c>
       <c r="E392">
-        <v>0.0046625319996035182</v>
+        <v>0.00098635130560577843</v>
       </c>
       <c r="F392">
-        <v>0.0032808870626574696</v>
+        <v>0.00077592263601058606</v>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>97.434171761673298</v>
+        <v>743.1201785777273</v>
       </c>
       <c r="B393">
-        <v>213.05789418263439</v>
+        <v>1012.422103954419</v>
       </c>
       <c r="C393">
-        <v>302.54647509479116</v>
+        <v>1286.5500680963364</v>
       </c>
       <c r="D393">
-        <v>1.0121216546949479</v>
+        <v>1.0017841227387414</v>
       </c>
       <c r="E393">
-        <v>1.4178456267729693</v>
+        <v>1.4154550538686936</v>
       </c>
       <c r="F393">
-        <v>2.2491429506574305</v>
+        <v>2.2382125775071295</v>
       </c>
     </row>
     <row r="394">
@@ -7007,93 +7197,93 @@
         <v>0</v>
       </c>
       <c r="D394">
-        <v>0.31171195220398112</v>
+        <v>0.31649235068389969</v>
       </c>
       <c r="E394">
-        <v>0.15653112198236177</v>
+        <v>0.15699226719352344</v>
       </c>
       <c r="F394">
-        <v>0.024709019105053548</v>
+        <v>0.025247429143826394</v>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>0.96978721432461723</v>
+        <v>0.99601922304439916</v>
       </c>
       <c r="B395">
-        <v>0.98424035865964943</v>
+        <v>0.99667022151388174</v>
       </c>
       <c r="C395">
-        <v>0.98618300982641061</v>
+        <v>0.99674220189692619</v>
       </c>
       <c r="D395">
-        <v>-0.009650880913478049</v>
+        <v>-0.0012882502652092416</v>
       </c>
       <c r="E395">
-        <v>-0.0025381401296968014</v>
+        <v>-0.00053750660529877821</v>
       </c>
       <c r="F395">
-        <v>0.00094137784416904041</v>
+        <v>0.00021556150310913483</v>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>1.0096508809134781</v>
+        <v>1.0012882502652092</v>
       </c>
       <c r="B396">
-        <v>1.0025381401296969</v>
+        <v>1.0005375066052986</v>
       </c>
       <c r="C396">
-        <v>0.99905862215583086</v>
+        <v>0.99978443849689069</v>
       </c>
       <c r="D396">
-        <v>0.030212785675382811</v>
+        <v>0.0039807769556007011</v>
       </c>
       <c r="E396">
-        <v>0.015759641340350551</v>
+        <v>0.0033297784861181451</v>
       </c>
       <c r="F396">
-        <v>0.013816990173589384</v>
+        <v>0.0032577981030736253</v>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B397">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C397">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D397">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="E397">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="F397">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B398">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C398">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D398">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="E398">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="F398">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="399">
@@ -7118,162 +7308,162 @@
     </row>
     <row r="401">
       <c r="A401">
-        <v>0.86132891005291001</v>
+        <v>0.97989056171142042</v>
       </c>
       <c r="B401">
-        <v>0.77192107096293539</v>
+        <v>0.95481386427996884</v>
       </c>
       <c r="C401">
-        <v>0.79227524134709904</v>
+        <v>0.95226454020116336</v>
       </c>
       <c r="D401">
-        <v>0.13867108994708996</v>
+        <v>0.020109438288579747</v>
       </c>
       <c r="E401">
-        <v>0.22807892903706461</v>
+        <v>0.045186135720031294</v>
       </c>
       <c r="F401">
-        <v>0.20772475865290088</v>
+        <v>0.047735459798836727</v>
       </c>
     </row>
     <row r="402">
       <c r="A402">
-        <v>0.033451196123499852</v>
+        <v>0.0060278286143314475</v>
       </c>
       <c r="B402">
-        <v>0.025004359001187536</v>
+        <v>0.0054521499912616117</v>
       </c>
       <c r="C402">
-        <v>0.015492122728860485</v>
+        <v>0.0039019857866339214</v>
       </c>
       <c r="D402">
-        <v>0.033451196123499852</v>
+        <v>0.0060278286143314475</v>
       </c>
       <c r="E402">
-        <v>0.025004359001187536</v>
+        <v>0.0054521499912616117</v>
       </c>
       <c r="F402">
-        <v>0.015492122728860485</v>
+        <v>0.0039019857866339214</v>
       </c>
     </row>
     <row r="403">
       <c r="A403">
-        <v>25.748822459828769</v>
+        <v>162.56111850653556</v>
       </c>
       <c r="B403">
-        <v>30.87146008926981</v>
+        <v>175.12611828550001</v>
       </c>
       <c r="C403">
-        <v>51.14052187768683</v>
+        <v>244.04613247518819</v>
       </c>
       <c r="D403">
-        <v>4.1454747816826769</v>
+        <v>3.3360998752964885</v>
       </c>
       <c r="E403">
-        <v>9.1215667246751817</v>
+        <v>8.2877646052388503</v>
       </c>
       <c r="F403">
-        <v>13.408411635284017</v>
+        <v>12.233632414129344</v>
       </c>
     </row>
     <row r="404">
       <c r="A404">
-        <v>7.7071992993492747e-114</v>
+        <v>0</v>
       </c>
       <c r="B404">
-        <v>1.2700692555105874e-149</v>
+        <v>0</v>
       </c>
       <c r="C404">
-        <v>7.0027329114810318e-288</v>
+        <v>0</v>
       </c>
       <c r="D404">
-        <v>3.6630809609070736e-05</v>
+        <v>0.00085531188639119827</v>
       </c>
       <c r="E404">
-        <v>3.6555819529726942e-19</v>
+        <v>1.439193837830256e-16</v>
       </c>
       <c r="F404">
-        <v>5.7198002078532509e-38</v>
+        <v>5.7154548776709208e-34</v>
       </c>
     </row>
     <row r="405">
       <c r="A405">
-        <v>0.7956904676109553</v>
+        <v>0.968073609880296</v>
       </c>
       <c r="B405">
-        <v>0.72285713994420486</v>
+        <v>0.94412547249828749</v>
       </c>
       <c r="C405">
-        <v>0.76187636406068593</v>
+        <v>0.94461508945587214</v>
       </c>
       <c r="D405">
-        <v>0.073032647505135204</v>
+        <v>0.0082924864574553236</v>
       </c>
       <c r="E405">
-        <v>0.17901499801833412</v>
+        <v>0.034497743938349944</v>
       </c>
       <c r="F405">
-        <v>0.17732588136648783</v>
+        <v>0.040086009053545549</v>
       </c>
     </row>
     <row r="406">
       <c r="A406">
-        <v>0.92696735249486473</v>
+        <v>0.99170751354254483</v>
       </c>
       <c r="B406">
-        <v>0.82098500198166591</v>
+        <v>0.96550225606165019</v>
       </c>
       <c r="C406">
-        <v>0.82267411863351214</v>
+        <v>0.95991399094645458</v>
       </c>
       <c r="D406">
-        <v>0.2043095323890447</v>
+        <v>0.031926390119704169</v>
       </c>
       <c r="E406">
-        <v>0.27714286005579508</v>
+        <v>0.055874527501712644</v>
       </c>
       <c r="F406">
-        <v>0.23812363593931393</v>
+        <v>0.055384910544127905</v>
       </c>
     </row>
     <row r="407">
       <c r="A407">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B407">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="C407">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="D407">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="E407">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="F407">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="408">
       <c r="A408">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B408">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="C408">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="D408">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="E408">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="F408">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="409">
@@ -7298,66 +7488,66 @@
     </row>
     <row r="411">
       <c r="A411">
-        <v>0.70226472641187643</v>
+        <v>0.93724456369867681</v>
       </c>
       <c r="B411">
-        <v>0.29773527358812357</v>
+        <v>0.062755436301323186</v>
       </c>
     </row>
     <row r="412">
       <c r="A412">
-        <v>0.014031992413647209</v>
+        <v>0.0033849589031607489</v>
       </c>
       <c r="B412">
-        <v>0.014031992413647209</v>
+        <v>0.0033849589031607489</v>
       </c>
     </row>
     <row r="413">
       <c r="A413">
-        <v>50.047399236680683</v>
+        <v>276.88506434258704</v>
       </c>
       <c r="B413">
-        <v>21.218317742144215</v>
+        <v>18.539497257329916</v>
       </c>
     </row>
     <row r="414">
       <c r="A414">
-        <v>7.2131638147055376e-281</v>
+        <v>0</v>
       </c>
       <c r="B414">
-        <v>1.711633410369738e-83</v>
+        <v>1.8576353729736251e-74</v>
       </c>
     </row>
     <row r="415">
       <c r="A415">
-        <v>0.67473093889083502</v>
+        <v>0.93060869216545428</v>
       </c>
       <c r="B415">
-        <v>0.27020148606708216</v>
+        <v>0.056119564768100642</v>
       </c>
     </row>
     <row r="416">
       <c r="A416">
-        <v>0.72979851393291784</v>
+        <v>0.94388043523189935</v>
       </c>
       <c r="B416">
-        <v>0.32526906110916498</v>
+        <v>0.069391307834545723</v>
       </c>
     </row>
     <row r="417">
       <c r="A417">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B417">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="418">
       <c r="A418">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B418">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="419">
@@ -7370,66 +7560,66 @@
     </row>
     <row r="421">
       <c r="A421">
-        <v>0.51413655341123188</v>
+        <v>0.89695371561395754</v>
       </c>
       <c r="B421">
-        <v>0.48586344658876818</v>
+        <v>0.10304628438604255</v>
       </c>
     </row>
     <row r="422">
       <c r="A422">
-        <v>0.01526752934833971</v>
+        <v>0.0041588605078849844</v>
       </c>
       <c r="B422">
-        <v>0.01526752934833971</v>
+        <v>0.0041588605078849844</v>
       </c>
     </row>
     <row r="423">
       <c r="A423">
-        <v>33.675163916887605</v>
+        <v>215.67295029813567</v>
       </c>
       <c r="B423">
-        <v>31.82331833156778</v>
+        <v>24.777528409686287</v>
       </c>
     </row>
     <row r="424">
       <c r="A424">
-        <v>2.0733493635007786e-169</v>
+        <v>0</v>
       </c>
       <c r="B424">
-        <v>2.4431325552583275e-156</v>
+        <v>1.6130996653980027e-128</v>
       </c>
     </row>
     <row r="425">
       <c r="A425">
-        <v>0.48417837664941982</v>
+        <v>0.88880068780935173</v>
       </c>
       <c r="B425">
-        <v>0.45590526982695612</v>
+        <v>0.094893256581436783</v>
       </c>
     </row>
     <row r="426">
       <c r="A426">
-        <v>0.54409473017304399</v>
+        <v>0.90510674341856334</v>
       </c>
       <c r="B426">
-        <v>0.51582162335058024</v>
+        <v>0.11119931219064831</v>
       </c>
     </row>
     <row r="427">
       <c r="A427">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B427">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="428">
       <c r="A428">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B428">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="429">
@@ -7442,26 +7632,26 @@
     </row>
     <row r="431">
       <c r="A431">
-        <v>0.99247783744818396</v>
+        <v>0.99842925641932501</v>
       </c>
       <c r="B431">
-        <v>0.0075221625518159616</v>
+        <v>0.0015707435806749264</v>
       </c>
     </row>
     <row r="432">
       <c r="A432">
-        <v>0.0026482214980076469</v>
+        <v>0.00055624006166206071</v>
       </c>
       <c r="B432">
-        <v>0.0026482214980076469</v>
+        <v>0.00055624006166206071</v>
       </c>
     </row>
     <row r="433">
       <c r="A433">
-        <v>374.77146008929429</v>
+        <v>1794.9610702903899</v>
       </c>
       <c r="B433">
-        <v>2.8404582311091264</v>
+        <v>2.8238591373327213</v>
       </c>
     </row>
     <row r="434">
@@ -7469,39 +7659,39 @@
         <v>0</v>
       </c>
       <c r="B434">
-        <v>0.0045914888647135953</v>
+        <v>0.0047621504399403001</v>
       </c>
     </row>
     <row r="435">
       <c r="A435">
-        <v>0.98728145721326588</v>
+        <v>0.9973388037147517</v>
       </c>
       <c r="B435">
-        <v>0.0023257823168979048</v>
+        <v>0.0004802908761015938</v>
       </c>
     </row>
     <row r="436">
       <c r="A436">
-        <v>0.99767421768310205</v>
+        <v>0.99951970912389831</v>
       </c>
       <c r="B436">
-        <v>0.012718542786734018</v>
+        <v>0.0026611962852482593</v>
       </c>
     </row>
     <row r="437">
       <c r="A437">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B437">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="438">
       <c r="A438">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B438">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="439">
@@ -7514,26 +7704,26 @@
     </row>
     <row r="441">
       <c r="A441">
-        <v>0.79112088272870773</v>
+        <v>0.95600453094206839</v>
       </c>
       <c r="B441">
-        <v>0.20887911727129227</v>
+        <v>0.043995469057931572</v>
       </c>
     </row>
     <row r="442">
       <c r="A442">
-        <v>0.012472103269319636</v>
+        <v>0.0028731851443101154</v>
       </c>
       <c r="B442">
-        <v>0.012472103269319636</v>
+        <v>0.0028731851443101154</v>
       </c>
     </row>
     <row r="443">
       <c r="A443">
-        <v>63.43123253916611</v>
+        <v>332.73335442210634</v>
       </c>
       <c r="B443">
-        <v>16.747705880941346</v>
+        <v>15.312437886245366</v>
       </c>
     </row>
     <row r="444">
@@ -7541,39 +7731,39 @@
         <v>0</v>
       </c>
       <c r="B444">
-        <v>5.2298812867072769e-56</v>
+        <v>7.4903343421207925e-52</v>
       </c>
     </row>
     <row r="445">
       <c r="A445">
-        <v>0.76664793325476521</v>
+        <v>0.95037194039835393</v>
       </c>
       <c r="B445">
-        <v>0.18440616779734978</v>
+        <v>0.038362878514217082</v>
       </c>
     </row>
     <row r="446">
       <c r="A446">
-        <v>0.81559383220265025</v>
+        <v>0.96163712148578284</v>
       </c>
       <c r="B446">
-        <v>0.23335206674523476</v>
+        <v>0.049628059601646062</v>
       </c>
     </row>
     <row r="447">
       <c r="A447">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
       <c r="B447">
-        <v>1055.0056603773585</v>
+        <v>5449.0011001100111</v>
       </c>
     </row>
     <row r="448">
       <c r="A448">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
       <c r="B448">
-        <v>1.962215108829636</v>
+        <v>1.9603994385356383</v>
       </c>
     </row>
     <row r="449">
